--- a/tests/data/CompiledDataSet.xlsx
+++ b/tests/data/CompiledDataSet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A56DD2-474B-4D9F-AE6C-E7ED6C89E65F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F8B64-48AE-4A7E-9F54-35ED7D77724F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11476" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59880" yWindow="2280" windowWidth="28800" windowHeight="15195" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet_1" sheetId="1" r:id="rId1"/>
     <sheet name="MetaInfo" sheetId="48" r:id="rId2"/>
+    <sheet name="Stevens_2012_placebo" sheetId="49" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
   <si>
     <t>Time [h]</t>
   </si>
@@ -397,6 +398,33 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>Time [min]</t>
+  </si>
+  <si>
+    <t>Fraction [%]</t>
+  </si>
+  <si>
+    <t>Error [%]</t>
+  </si>
+  <si>
+    <t>Placebo_total</t>
+  </si>
+  <si>
+    <t>Sita_total</t>
+  </si>
+  <si>
+    <t>Placebo_proximal</t>
+  </si>
+  <si>
+    <t>Sita_proximal</t>
+  </si>
+  <si>
+    <t>Placebo_distal</t>
+  </si>
+  <si>
+    <t>Sita_dist</t>
   </si>
 </sst>
 </file>
@@ -1284,29 +1312,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1464,7 +1492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1540,7 +1568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1578,7 +1606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1616,7 +1644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1654,7 +1682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1819,16 +1847,16 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.3984375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.59765625" style="3"/>
+    <col min="1" max="1" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1860,7 +1888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1868,10 +1896,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1879,10 +1907,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +1935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1915,7 +1943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1923,7 +1951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1931,7 +1959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1942,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1953,7 +1981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1967,7 +1995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
@@ -1987,13 +2015,1057 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ECE4FC-F784-466F-BAAB-201D73E4B216}">
+  <dimension ref="A1:N78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>13.172268907563</v>
+      </c>
+      <c r="K3">
+        <v>93.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>29.403361344537799</v>
+      </c>
+      <c r="K4">
+        <v>84.1666666666666</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>44.647058823529399</v>
+      </c>
+      <c r="K5">
+        <v>72.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>73.079831932773104</v>
+      </c>
+      <c r="K6">
+        <v>52.9166666666666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>88.273109243697405</v>
+      </c>
+      <c r="K7">
+        <v>46.25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>105.48319327730999</v>
+      </c>
+      <c r="K8">
+        <v>39.5833333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>118.66386554621801</v>
+      </c>
+      <c r="K9">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>149.029411764705</v>
+      </c>
+      <c r="K10">
+        <v>21.25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>180.35294117647001</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>210.65966386554601</v>
+      </c>
+      <c r="K12">
+        <v>9.5833333333333197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>240.94537815126</v>
+      </c>
+      <c r="K13">
+        <v>6.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>14.218487394957901</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>27.403361344537799</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>43.634453781512597</v>
+      </c>
+      <c r="K17">
+        <v>72.9166666666666</v>
+      </c>
+      <c r="N17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>57.8403361344537</v>
+      </c>
+      <c r="K18">
+        <v>64.1666666666666</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>74.067226890756302</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>89.260504201680604</v>
+      </c>
+      <c r="K20">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="N20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>105.462184873949</v>
+      </c>
+      <c r="K21">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="N21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>119.642857142857</v>
+      </c>
+      <c r="K22">
+        <v>35.4166666666666</v>
+      </c>
+      <c r="N22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>150.004201680672</v>
+      </c>
+      <c r="K23">
+        <v>24.5833333333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>179.31932773109199</v>
+      </c>
+      <c r="K24">
+        <v>17.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>209.62605042016801</v>
+      </c>
+      <c r="K25">
+        <v>12.0833333333333</v>
+      </c>
+      <c r="N25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>240.915966386554</v>
+      </c>
+      <c r="K26">
+        <v>9.1666666666666803</v>
+      </c>
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K27">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L27">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K28">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L28">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K29">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L29">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K30">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L30">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K31">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L31">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K32">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L32">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K33">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L33">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K34">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L34">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K35">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L35">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K37">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L37">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K38">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K39">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K40">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L40">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K41">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L41">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K42">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L42">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K43">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L43">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K44">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L44">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K45">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L45">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K46">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L46">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K47">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L47">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K48">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L48">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K50">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L50">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K51">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K52">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>25.579399141630901</v>
+      </c>
+      <c r="L53">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K54">
+        <v>32.446351931330398</v>
+      </c>
+      <c r="L54">
+        <v>2.9184549356223002</v>
+      </c>
+      <c r="N54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>28.965517241379299</v>
+      </c>
+      <c r="K55">
+        <v>32.103004291845401</v>
+      </c>
+      <c r="L55">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>45.517241379310398</v>
+      </c>
+      <c r="K56">
+        <v>30.2145922746781</v>
+      </c>
+      <c r="L56">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>58.965517241379402</v>
+      </c>
+      <c r="K57">
+        <v>29.0128755364806</v>
+      </c>
+      <c r="L57">
+        <v>2.2317596566523008</v>
+      </c>
+      <c r="N57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K58">
+        <v>25.7510729613733</v>
+      </c>
+      <c r="L58">
+        <v>2.0600858369097992</v>
+      </c>
+      <c r="N58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>88.965517241379402</v>
+      </c>
+      <c r="K59">
+        <v>22.317596566523601</v>
+      </c>
+      <c r="L59">
+        <v>1.7167381974249025</v>
+      </c>
+      <c r="N59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K60">
+        <v>19.399141630901202</v>
+      </c>
+      <c r="L60">
+        <v>1.716738197424803</v>
+      </c>
+      <c r="N60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>16.480686695278902</v>
+      </c>
+      <c r="L61">
+        <v>1.5450643776824009</v>
+      </c>
+      <c r="N61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>11.158798283261801</v>
+      </c>
+      <c r="L62">
+        <v>1.2017167381974208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>180</v>
+      </c>
+      <c r="K63">
+        <v>8.2403433476394792</v>
+      </c>
+      <c r="L63">
+        <v>0.85836909871243883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>211.03448275861999</v>
+      </c>
+      <c r="K64">
+        <v>5.3218884120171701</v>
+      </c>
+      <c r="L64">
+        <v>1.0300429184549404</v>
+      </c>
+      <c r="N64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>238.96551724137899</v>
+      </c>
+      <c r="K65">
+        <v>4.1201716738197396</v>
+      </c>
+      <c r="L65">
+        <v>0.51502145922746978</v>
+      </c>
+      <c r="N65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>24.206008583690899</v>
+      </c>
+      <c r="L66">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K67">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L67">
+        <v>2.5751072961373005</v>
+      </c>
+      <c r="N67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <v>26.8965517241379</v>
+      </c>
+      <c r="K68">
+        <v>32.274678111587903</v>
+      </c>
+      <c r="L68">
+        <v>2.9184549356223037</v>
+      </c>
+      <c r="N68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <v>44.482758620689701</v>
+      </c>
+      <c r="K69">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L69">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J70">
+        <v>61.034482758620797</v>
+      </c>
+      <c r="K70">
+        <v>29.356223175965599</v>
+      </c>
+      <c r="L70">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K71">
+        <v>27.9828326180257</v>
+      </c>
+      <c r="L71">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J72">
+        <v>90.000000000000099</v>
+      </c>
+      <c r="K72">
+        <v>25.0643776824034</v>
+      </c>
+      <c r="L72">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J73">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K73">
+        <v>21.8025751072961</v>
+      </c>
+      <c r="L73">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J74">
+        <v>118.965517241379</v>
+      </c>
+      <c r="K74">
+        <v>19.2274678111588</v>
+      </c>
+      <c r="L74">
+        <v>2.4034334763947989</v>
+      </c>
+      <c r="N74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J75">
+        <v>148.96551724137899</v>
+      </c>
+      <c r="K75">
+        <v>13.5622317596566</v>
+      </c>
+      <c r="L75">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <v>180</v>
+      </c>
+      <c r="K76">
+        <v>9.6137339055793998</v>
+      </c>
+      <c r="L76">
+        <v>2.4034334763948006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <v>208.96551724137899</v>
+      </c>
+      <c r="K77">
+        <v>6.5236051502145997</v>
+      </c>
+      <c r="L77">
+        <v>1.8884120171673704</v>
+      </c>
+      <c r="N77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>5.1502145922746703</v>
+      </c>
+      <c r="L78">
+        <v>1.8884120171673899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2002,7 +3074,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6960b7ce0e258e5d224c1a71edff679">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7db7ba54f101f424e932c64edcbdaa0" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -2219,23 +3291,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2243,7 +3305,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8CCCB-E073-4D73-9695-C91416D097D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2260,4 +3322,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/data/CompiledDataSet.xlsx
+++ b/tests/data/CompiledDataSet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A56DD2-474B-4D9F-AE6C-E7ED6C89E65F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7AD7DE-CF5F-4092-AE2B-7C958088101C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11476" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1988" yWindow="2520" windowWidth="21600" windowHeight="11535" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet_1" sheetId="1" r:id="rId1"/>
     <sheet name="MetaInfo" sheetId="48" r:id="rId2"/>
+    <sheet name="Stevens_2012_placebo" sheetId="49" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="74">
   <si>
     <t>Time [h]</t>
   </si>
@@ -397,6 +398,36 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Time [min]</t>
+  </si>
+  <si>
+    <t>Fraction [%]</t>
+  </si>
+  <si>
+    <t>Error [%]</t>
+  </si>
+  <si>
+    <t>Placebo_total</t>
+  </si>
+  <si>
+    <t>Sita_total</t>
+  </si>
+  <si>
+    <t>Placebo_proximal</t>
+  </si>
+  <si>
+    <t>Sita_proximal</t>
+  </si>
+  <si>
+    <t>Placebo_distal</t>
+  </si>
+  <si>
+    <t>Sita_dist</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1987,22 +2018,1057 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E8DDA-F3F4-4710-A6B6-93A80B4A8C1A}">
+  <dimension ref="A1:N78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>13.172268907563</v>
+      </c>
+      <c r="K3">
+        <v>93.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <v>29.403361344537799</v>
+      </c>
+      <c r="K4">
+        <v>84.1666666666666</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <v>44.647058823529399</v>
+      </c>
+      <c r="K5">
+        <v>72.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <v>73.079831932773104</v>
+      </c>
+      <c r="K6">
+        <v>52.9166666666666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <v>88.273109243697405</v>
+      </c>
+      <c r="K7">
+        <v>46.25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <v>105.48319327730999</v>
+      </c>
+      <c r="K8">
+        <v>39.5833333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <v>118.66386554621801</v>
+      </c>
+      <c r="K9">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J10">
+        <v>149.029411764705</v>
+      </c>
+      <c r="K10">
+        <v>21.25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J11">
+        <v>180.35294117647001</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <v>210.65966386554601</v>
+      </c>
+      <c r="K12">
+        <v>9.5833333333333197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J13">
+        <v>240.94537815126</v>
+      </c>
+      <c r="K13">
+        <v>6.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J15">
+        <v>14.218487394957901</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <v>27.403361344537799</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <v>43.634453781512597</v>
+      </c>
+      <c r="K17">
+        <v>72.9166666666666</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <v>57.8403361344537</v>
+      </c>
+      <c r="K18">
+        <v>64.1666666666666</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <v>74.067226890756302</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <v>89.260504201680604</v>
+      </c>
+      <c r="K20">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <v>105.462184873949</v>
+      </c>
+      <c r="K21">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="N21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <v>119.642857142857</v>
+      </c>
+      <c r="K22">
+        <v>35.4166666666666</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <v>150.004201680672</v>
+      </c>
+      <c r="K23">
+        <v>24.5833333333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <v>179.31932773109199</v>
+      </c>
+      <c r="K24">
+        <v>17.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <v>209.62605042016801</v>
+      </c>
+      <c r="K25">
+        <v>12.0833333333333</v>
+      </c>
+      <c r="N25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <v>240.915966386554</v>
+      </c>
+      <c r="K26">
+        <v>9.1666666666666803</v>
+      </c>
+      <c r="N26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K27">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L27">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K28">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L28">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K29">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L29">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K30">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L30">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K31">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L31">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K32">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L32">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K33">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L33">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K34">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L34">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K35">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L35">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K37">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L37">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K38">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K39">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K40">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L40">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K41">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L41">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K42">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L42">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K43">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L43">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K44">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L44">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K45">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L45">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K46">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L46">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K47">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L47">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K48">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L48">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K50">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L50">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J51">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K51">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J52">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K52">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>25.579399141630901</v>
+      </c>
+      <c r="L53">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J54">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K54">
+        <v>32.446351931330398</v>
+      </c>
+      <c r="L54">
+        <v>2.9184549356223002</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J55">
+        <v>28.965517241379299</v>
+      </c>
+      <c r="K55">
+        <v>32.103004291845401</v>
+      </c>
+      <c r="L55">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J56">
+        <v>45.517241379310398</v>
+      </c>
+      <c r="K56">
+        <v>30.2145922746781</v>
+      </c>
+      <c r="L56">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J57">
+        <v>58.965517241379402</v>
+      </c>
+      <c r="K57">
+        <v>29.0128755364806</v>
+      </c>
+      <c r="L57">
+        <v>2.2317596566523008</v>
+      </c>
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J58">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K58">
+        <v>25.7510729613733</v>
+      </c>
+      <c r="L58">
+        <v>2.0600858369097992</v>
+      </c>
+      <c r="N58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J59">
+        <v>88.965517241379402</v>
+      </c>
+      <c r="K59">
+        <v>22.317596566523601</v>
+      </c>
+      <c r="L59">
+        <v>1.7167381974249025</v>
+      </c>
+      <c r="N59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J60">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K60">
+        <v>19.399141630901202</v>
+      </c>
+      <c r="L60">
+        <v>1.716738197424803</v>
+      </c>
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>16.480686695278902</v>
+      </c>
+      <c r="L61">
+        <v>1.5450643776824009</v>
+      </c>
+      <c r="N61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>11.158798283261801</v>
+      </c>
+      <c r="L62">
+        <v>1.2017167381974208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J63">
+        <v>180</v>
+      </c>
+      <c r="K63">
+        <v>8.2403433476394792</v>
+      </c>
+      <c r="L63">
+        <v>0.85836909871243883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J64">
+        <v>211.03448275861999</v>
+      </c>
+      <c r="K64">
+        <v>5.3218884120171701</v>
+      </c>
+      <c r="L64">
+        <v>1.0300429184549404</v>
+      </c>
+      <c r="N64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J65">
+        <v>238.96551724137899</v>
+      </c>
+      <c r="K65">
+        <v>4.1201716738197396</v>
+      </c>
+      <c r="L65">
+        <v>0.51502145922746978</v>
+      </c>
+      <c r="N65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>24.206008583690899</v>
+      </c>
+      <c r="L66">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J67">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K67">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L67">
+        <v>2.5751072961373005</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J68">
+        <v>26.8965517241379</v>
+      </c>
+      <c r="K68">
+        <v>32.274678111587903</v>
+      </c>
+      <c r="L68">
+        <v>2.9184549356223037</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J69">
+        <v>44.482758620689701</v>
+      </c>
+      <c r="K69">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L69">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J70">
+        <v>61.034482758620797</v>
+      </c>
+      <c r="K70">
+        <v>29.356223175965599</v>
+      </c>
+      <c r="L70">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J71">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K71">
+        <v>27.9828326180257</v>
+      </c>
+      <c r="L71">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J72">
+        <v>90.000000000000099</v>
+      </c>
+      <c r="K72">
+        <v>25.0643776824034</v>
+      </c>
+      <c r="L72">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J73">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K73">
+        <v>21.8025751072961</v>
+      </c>
+      <c r="L73">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J74">
+        <v>118.965517241379</v>
+      </c>
+      <c r="K74">
+        <v>19.2274678111588</v>
+      </c>
+      <c r="L74">
+        <v>2.4034334763947989</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J75">
+        <v>148.96551724137899</v>
+      </c>
+      <c r="K75">
+        <v>13.5622317596566</v>
+      </c>
+      <c r="L75">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J76">
+        <v>180</v>
+      </c>
+      <c r="K76">
+        <v>9.6137339055793998</v>
+      </c>
+      <c r="L76">
+        <v>2.4034334763948006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J77">
+        <v>208.96551724137899</v>
+      </c>
+      <c r="K77">
+        <v>6.5236051502145997</v>
+      </c>
+      <c r="L77">
+        <v>1.8884120171673704</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J78">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>5.1502145922746703</v>
+      </c>
+      <c r="L78">
+        <v>1.8884120171673899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6960b7ce0e258e5d224c1a71edff679">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7db7ba54f101f424e932c64edcbdaa0" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -2219,31 +3285,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8CCCB-E073-4D73-9695-C91416D097D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2260,4 +3317,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/data/CompiledDataSet.xlsx
+++ b/tests/data/CompiledDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F8B64-48AE-4A7E-9F54-35ED7D77724F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7AD7DE-CF5F-4092-AE2B-7C958088101C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59880" yWindow="2280" windowWidth="28800" windowHeight="15195" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1988" yWindow="2520" windowWidth="21600" windowHeight="11535" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet_1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="74">
   <si>
     <t>Time [h]</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>Dose</t>
   </si>
   <si>
     <t>Time [min]</t>
@@ -1316,25 +1319,25 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1847,16 +1850,16 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.6328125" style="3"/>
+    <col min="1" max="1" width="12.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.3984375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1896,10 +1899,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C8" s="4"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1907,10 +1910,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C14" s="4"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
@@ -2016,16 +2019,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ECE4FC-F784-466F-BAAB-201D73E4B216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E8DDA-F3F4-4710-A6B6-93A80B4A8C1A}">
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -2054,13 +2057,13 @@
         <v>63</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -2069,7 +2072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J2">
         <v>0</v>
       </c>
@@ -2077,10 +2080,10 @@
         <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J3">
         <v>13.172268907563</v>
       </c>
@@ -2088,10 +2091,10 @@
         <v>93.75</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J4">
         <v>29.403361344537799</v>
       </c>
@@ -2099,10 +2102,10 @@
         <v>84.1666666666666</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J5">
         <v>44.647058823529399</v>
       </c>
@@ -2110,10 +2113,10 @@
         <v>72.5</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J6">
         <v>73.079831932773104</v>
       </c>
@@ -2121,10 +2124,10 @@
         <v>52.9166666666666</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J7">
         <v>88.273109243697405</v>
       </c>
@@ -2132,10 +2135,10 @@
         <v>46.25</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J8">
         <v>105.48319327730999</v>
       </c>
@@ -2143,10 +2146,10 @@
         <v>39.5833333333333</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J9">
         <v>118.66386554621801</v>
       </c>
@@ -2154,10 +2157,10 @@
         <v>32.5</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J10">
         <v>149.029411764705</v>
       </c>
@@ -2165,10 +2168,10 @@
         <v>21.25</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J11">
         <v>180.35294117647001</v>
       </c>
@@ -2176,10 +2179,10 @@
         <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J12">
         <v>210.65966386554601</v>
       </c>
@@ -2187,10 +2190,10 @@
         <v>9.5833333333333197</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J13">
         <v>240.94537815126</v>
       </c>
@@ -2198,10 +2201,10 @@
         <v>6.25</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J14">
         <v>0</v>
       </c>
@@ -2209,10 +2212,10 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J15">
         <v>14.218487394957901</v>
       </c>
@@ -2220,10 +2223,10 @@
         <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J16">
         <v>27.403361344537799</v>
       </c>
@@ -2231,10 +2234,10 @@
         <v>82.5</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J17">
         <v>43.634453781512597</v>
       </c>
@@ -2242,10 +2245,10 @@
         <v>72.9166666666666</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J18">
         <v>57.8403361344537</v>
       </c>
@@ -2253,10 +2256,10 @@
         <v>64.1666666666666</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J19">
         <v>74.067226890756302</v>
       </c>
@@ -2264,10 +2267,10 @@
         <v>55</v>
       </c>
       <c r="N19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J20">
         <v>89.260504201680604</v>
       </c>
@@ -2275,10 +2278,10 @@
         <v>48.3333333333333</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J21">
         <v>105.462184873949</v>
       </c>
@@ -2286,10 +2289,10 @@
         <v>41.6666666666666</v>
       </c>
       <c r="N21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J22">
         <v>119.642857142857</v>
       </c>
@@ -2297,10 +2300,10 @@
         <v>35.4166666666666</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J23">
         <v>150.004201680672</v>
       </c>
@@ -2308,10 +2311,10 @@
         <v>24.5833333333333</v>
       </c>
       <c r="N23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J24">
         <v>179.31932773109199</v>
       </c>
@@ -2319,10 +2322,10 @@
         <v>17.5</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J25">
         <v>209.62605042016801</v>
       </c>
@@ -2330,10 +2333,10 @@
         <v>12.0833333333333</v>
       </c>
       <c r="N25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J26">
         <v>240.915966386554</v>
       </c>
@@ -2341,10 +2344,10 @@
         <v>9.1666666666666803</v>
       </c>
       <c r="N26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J27">
         <v>0.967598097502957</v>
       </c>
@@ -2355,10 +2358,10 @@
         <v>4.827586206896612</v>
       </c>
       <c r="N27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J28">
         <v>16.306480380499401</v>
       </c>
@@ -2369,10 +2372,10 @@
         <v>2.0689655172413026</v>
       </c>
       <c r="N28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J29">
         <v>30.659928656361402</v>
       </c>
@@ -2383,10 +2386,10 @@
         <v>3.1034482758620001</v>
       </c>
       <c r="N29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J30">
         <v>45.026753864447002</v>
       </c>
@@ -2397,10 +2400,10 @@
         <v>1.7241379310344982</v>
       </c>
       <c r="N30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J31">
         <v>61.475921521997499</v>
       </c>
@@ -2411,10 +2414,10 @@
         <v>2.7586206896551957</v>
       </c>
       <c r="N31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J32">
         <v>74.839476813317404</v>
       </c>
@@ -2425,10 +2428,10 @@
         <v>2.4137931034482989</v>
       </c>
       <c r="N32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J33">
         <v>90.303210463733507</v>
       </c>
@@ -2439,10 +2442,10 @@
         <v>2.4137931034482989</v>
       </c>
       <c r="N33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J34">
         <v>105.76248513674101</v>
       </c>
@@ -2453,10 +2456,10 @@
         <v>2.413793103448203</v>
       </c>
       <c r="N34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J35">
         <v>121.23513674197299</v>
       </c>
@@ -2467,10 +2470,10 @@
         <v>2.758620689655201</v>
       </c>
       <c r="N35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J36">
         <v>150.133769322235</v>
       </c>
@@ -2481,10 +2484,10 @@
         <v>2.7586206896550998</v>
       </c>
       <c r="N36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J37">
         <v>182.16260404280601</v>
       </c>
@@ -2495,10 +2498,10 @@
         <v>2.068965517241371</v>
       </c>
       <c r="N37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J38">
         <v>211.09690844233</v>
       </c>
@@ -2506,10 +2509,10 @@
         <v>4.4827586206896601</v>
       </c>
       <c r="N38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J39">
         <v>242.11355529131899</v>
       </c>
@@ -2517,10 +2520,10 @@
         <v>3.1034482758620601</v>
       </c>
       <c r="N39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J40">
         <v>0.967598097502957</v>
       </c>
@@ -2531,10 +2534,10 @@
         <v>4.827586206896612</v>
       </c>
       <c r="N40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J41">
         <v>16.306480380499401</v>
       </c>
@@ -2545,10 +2548,10 @@
         <v>2.0689655172413026</v>
       </c>
       <c r="N41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J42">
         <v>30.659928656361402</v>
       </c>
@@ -2559,10 +2562,10 @@
         <v>3.1034482758620001</v>
       </c>
       <c r="N42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J43">
         <v>45.026753864447002</v>
       </c>
@@ -2573,10 +2576,10 @@
         <v>1.7241379310344982</v>
       </c>
       <c r="N43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J44">
         <v>61.475921521997499</v>
       </c>
@@ -2587,10 +2590,10 @@
         <v>2.7586206896551957</v>
       </c>
       <c r="N44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J45">
         <v>74.839476813317404</v>
       </c>
@@ -2601,10 +2604,10 @@
         <v>2.4137931034482989</v>
       </c>
       <c r="N45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J46">
         <v>90.303210463733507</v>
       </c>
@@ -2615,10 +2618,10 @@
         <v>2.4137931034482989</v>
       </c>
       <c r="N46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J47">
         <v>105.76248513674101</v>
       </c>
@@ -2629,10 +2632,10 @@
         <v>2.413793103448203</v>
       </c>
       <c r="N47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J48">
         <v>121.23513674197299</v>
       </c>
@@ -2643,10 +2646,10 @@
         <v>2.758620689655201</v>
       </c>
       <c r="N48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J49">
         <v>150.133769322235</v>
       </c>
@@ -2657,10 +2660,10 @@
         <v>2.7586206896550998</v>
       </c>
       <c r="N49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J50">
         <v>182.16260404280601</v>
       </c>
@@ -2671,10 +2674,10 @@
         <v>2.068965517241371</v>
       </c>
       <c r="N50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J51">
         <v>211.09690844233</v>
       </c>
@@ -2682,10 +2685,10 @@
         <v>4.4827586206896601</v>
       </c>
       <c r="N51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J52">
         <v>242.11355529131899</v>
       </c>
@@ -2693,10 +2696,10 @@
         <v>3.1034482758620601</v>
       </c>
       <c r="N52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J53">
         <v>0</v>
       </c>
@@ -2707,10 +2710,10 @@
         <v>2.7467811158797986</v>
       </c>
       <c r="N53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J54">
         <v>14.482758620689699</v>
       </c>
@@ -2721,10 +2724,10 @@
         <v>2.9184549356223002</v>
       </c>
       <c r="N54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J55">
         <v>28.965517241379299</v>
       </c>
@@ -2735,10 +2738,10 @@
         <v>2.7467811158798021</v>
       </c>
       <c r="N55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J56">
         <v>45.517241379310398</v>
       </c>
@@ -2749,10 +2752,10 @@
         <v>2.4034334763949019</v>
       </c>
       <c r="N56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J57">
         <v>58.965517241379402</v>
       </c>
@@ -2763,10 +2766,10 @@
         <v>2.2317596566523008</v>
       </c>
       <c r="N57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J58">
         <v>74.482758620689694</v>
       </c>
@@ -2777,10 +2780,10 @@
         <v>2.0600858369097992</v>
       </c>
       <c r="N58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J59">
         <v>88.965517241379402</v>
       </c>
@@ -2791,10 +2794,10 @@
         <v>1.7167381974249025</v>
       </c>
       <c r="N59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J60">
         <v>104.482758620689</v>
       </c>
@@ -2805,10 +2808,10 @@
         <v>1.716738197424803</v>
       </c>
       <c r="N60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J61">
         <v>120</v>
       </c>
@@ -2819,10 +2822,10 @@
         <v>1.5450643776824009</v>
       </c>
       <c r="N61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J62">
         <v>150</v>
       </c>
@@ -2833,10 +2836,10 @@
         <v>1.2017167381974208</v>
       </c>
       <c r="N62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J63">
         <v>180</v>
       </c>
@@ -2847,10 +2850,10 @@
         <v>0.85836909871243883</v>
       </c>
       <c r="N63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J64">
         <v>211.03448275861999</v>
       </c>
@@ -2861,10 +2864,10 @@
         <v>1.0300429184549404</v>
       </c>
       <c r="N64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J65">
         <v>238.96551724137899</v>
       </c>
@@ -2875,10 +2878,10 @@
         <v>0.51502145922746978</v>
       </c>
       <c r="N65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J66">
         <v>0</v>
       </c>
@@ -2889,10 +2892,10 @@
         <v>2.7467811158797986</v>
       </c>
       <c r="N66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J67">
         <v>14.482758620689699</v>
       </c>
@@ -2903,10 +2906,10 @@
         <v>2.5751072961373005</v>
       </c>
       <c r="N67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J68">
         <v>26.8965517241379</v>
       </c>
@@ -2917,10 +2920,10 @@
         <v>2.9184549356223037</v>
       </c>
       <c r="N68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J69">
         <v>44.482758620689701</v>
       </c>
@@ -2931,10 +2934,10 @@
         <v>2.4034334763949019</v>
       </c>
       <c r="N69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J70">
         <v>61.034482758620797</v>
       </c>
@@ -2945,10 +2948,10 @@
         <v>2.7467811158798021</v>
       </c>
       <c r="N70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J71">
         <v>74.482758620689694</v>
       </c>
@@ -2959,10 +2962,10 @@
         <v>2.2317596566524003</v>
       </c>
       <c r="N71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J72">
         <v>90.000000000000099</v>
       </c>
@@ -2973,10 +2976,10 @@
         <v>2.7467811158797986</v>
       </c>
       <c r="N72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J73">
         <v>104.482758620689</v>
       </c>
@@ -2987,10 +2990,10 @@
         <v>2.7467811158797986</v>
       </c>
       <c r="N73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J74">
         <v>118.965517241379</v>
       </c>
@@ -3001,10 +3004,10 @@
         <v>2.4034334763947989</v>
       </c>
       <c r="N74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J75">
         <v>148.96551724137899</v>
       </c>
@@ -3015,10 +3018,10 @@
         <v>2.2317596566524003</v>
       </c>
       <c r="N75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J76">
         <v>180</v>
       </c>
@@ -3029,10 +3032,10 @@
         <v>2.4034334763948006</v>
       </c>
       <c r="N76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J77">
         <v>208.96551724137899</v>
       </c>
@@ -3043,10 +3046,10 @@
         <v>1.8884120171673704</v>
       </c>
       <c r="N77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.45">
       <c r="J78">
         <v>240</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>1.8884120171673899</v>
       </c>
       <c r="N78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3066,15 +3069,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6960b7ce0e258e5d224c1a71edff679">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7db7ba54f101f424e932c64edcbdaa0" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -3291,6 +3285,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3298,14 +3301,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8CCCB-E073-4D73-9695-C91416D097D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3320,6 +3315,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/data/CompiledDataSet.xlsx
+++ b/tests/data/CompiledDataSet.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7AD7DE-CF5F-4092-AE2B-7C958088101C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E4F2BB-5A0B-4B6D-849F-7AD76D999ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1988" yWindow="2520" windowWidth="21600" windowHeight="11535" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="29026" windowHeight="15825" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet_1" sheetId="1" r:id="rId1"/>
     <sheet name="MetaInfo" sheetId="48" r:id="rId2"/>
     <sheet name="Stevens_2012_placebo" sheetId="49" r:id="rId3"/>
+    <sheet name="WrongSheet" sheetId="50" r:id="rId4"/>
+    <sheet name="CorrectSheet_additionalCols" sheetId="51" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="74">
   <si>
     <t>Time [h]</t>
   </si>
@@ -2022,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E8DDA-F3F4-4710-A6B6-93A80B4A8C1A}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3068,7 +3070,1131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB5B98-2408-40BA-99F9-228ECCEE7326}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C19160-8B30-4C70-A987-7318B15033AF}">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>13.172268907563</v>
+      </c>
+      <c r="K3">
+        <v>93.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <v>29.403361344537799</v>
+      </c>
+      <c r="K4">
+        <v>84.1666666666666</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <v>44.647058823529399</v>
+      </c>
+      <c r="K5">
+        <v>72.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <v>73.079831932773104</v>
+      </c>
+      <c r="K6">
+        <v>52.9166666666666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <v>88.273109243697405</v>
+      </c>
+      <c r="K7">
+        <v>46.25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <v>105.48319327730999</v>
+      </c>
+      <c r="K8">
+        <v>39.5833333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <v>118.66386554621801</v>
+      </c>
+      <c r="K9">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J10">
+        <v>149.029411764705</v>
+      </c>
+      <c r="K10">
+        <v>21.25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J11">
+        <v>180.35294117647001</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <v>210.65966386554601</v>
+      </c>
+      <c r="K12">
+        <v>9.5833333333333197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J13">
+        <v>240.94537815126</v>
+      </c>
+      <c r="K13">
+        <v>6.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J15">
+        <v>14.218487394957901</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <v>27.403361344537799</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <v>43.634453781512597</v>
+      </c>
+      <c r="K17">
+        <v>72.9166666666666</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <v>57.8403361344537</v>
+      </c>
+      <c r="K18">
+        <v>64.1666666666666</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <v>74.067226890756302</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <v>89.260504201680604</v>
+      </c>
+      <c r="K20">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <v>105.462184873949</v>
+      </c>
+      <c r="K21">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="N21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <v>119.642857142857</v>
+      </c>
+      <c r="K22">
+        <v>35.4166666666666</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <v>150.004201680672</v>
+      </c>
+      <c r="K23">
+        <v>24.5833333333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <v>179.31932773109199</v>
+      </c>
+      <c r="K24">
+        <v>17.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <v>209.62605042016801</v>
+      </c>
+      <c r="K25">
+        <v>12.0833333333333</v>
+      </c>
+      <c r="N25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <v>240.915966386554</v>
+      </c>
+      <c r="K26">
+        <v>9.1666666666666803</v>
+      </c>
+      <c r="N26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K27">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L27">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K28">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L28">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K29">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L29">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K30">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L30">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K31">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L31">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K32">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L32">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K33">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L33">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K34">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L34">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K35">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L35">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K37">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L37">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K38">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K39">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K40">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L40">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K41">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L41">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K42">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L42">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K43">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L43">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K44">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L44">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K45">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L45">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K46">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L46">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K47">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L47">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K48">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L48">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K50">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L50">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J51">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K51">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J52">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K52">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>25.579399141630901</v>
+      </c>
+      <c r="L53">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J54">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K54">
+        <v>32.446351931330398</v>
+      </c>
+      <c r="L54">
+        <v>2.9184549356223002</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J55">
+        <v>28.965517241379299</v>
+      </c>
+      <c r="K55">
+        <v>32.103004291845401</v>
+      </c>
+      <c r="L55">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J56">
+        <v>45.517241379310398</v>
+      </c>
+      <c r="K56">
+        <v>30.2145922746781</v>
+      </c>
+      <c r="L56">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J57">
+        <v>58.965517241379402</v>
+      </c>
+      <c r="K57">
+        <v>29.0128755364806</v>
+      </c>
+      <c r="L57">
+        <v>2.2317596566523008</v>
+      </c>
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J58">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K58">
+        <v>25.7510729613733</v>
+      </c>
+      <c r="L58">
+        <v>2.0600858369097992</v>
+      </c>
+      <c r="N58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J59">
+        <v>88.965517241379402</v>
+      </c>
+      <c r="K59">
+        <v>22.317596566523601</v>
+      </c>
+      <c r="L59">
+        <v>1.7167381974249025</v>
+      </c>
+      <c r="N59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J60">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K60">
+        <v>19.399141630901202</v>
+      </c>
+      <c r="L60">
+        <v>1.716738197424803</v>
+      </c>
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>16.480686695278902</v>
+      </c>
+      <c r="L61">
+        <v>1.5450643776824009</v>
+      </c>
+      <c r="N61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>11.158798283261801</v>
+      </c>
+      <c r="L62">
+        <v>1.2017167381974208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J63">
+        <v>180</v>
+      </c>
+      <c r="K63">
+        <v>8.2403433476394792</v>
+      </c>
+      <c r="L63">
+        <v>0.85836909871243883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J64">
+        <v>211.03448275861999</v>
+      </c>
+      <c r="K64">
+        <v>5.3218884120171701</v>
+      </c>
+      <c r="L64">
+        <v>1.0300429184549404</v>
+      </c>
+      <c r="N64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J65">
+        <v>238.96551724137899</v>
+      </c>
+      <c r="K65">
+        <v>4.1201716738197396</v>
+      </c>
+      <c r="L65">
+        <v>0.51502145922746978</v>
+      </c>
+      <c r="N65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>24.206008583690899</v>
+      </c>
+      <c r="L66">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J67">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K67">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L67">
+        <v>2.5751072961373005</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J68">
+        <v>26.8965517241379</v>
+      </c>
+      <c r="K68">
+        <v>32.274678111587903</v>
+      </c>
+      <c r="L68">
+        <v>2.9184549356223037</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J69">
+        <v>44.482758620689701</v>
+      </c>
+      <c r="K69">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L69">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J70">
+        <v>61.034482758620797</v>
+      </c>
+      <c r="K70">
+        <v>29.356223175965599</v>
+      </c>
+      <c r="L70">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J71">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K71">
+        <v>27.9828326180257</v>
+      </c>
+      <c r="L71">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J72">
+        <v>90.000000000000099</v>
+      </c>
+      <c r="K72">
+        <v>25.0643776824034</v>
+      </c>
+      <c r="L72">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J73">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K73">
+        <v>21.8025751072961</v>
+      </c>
+      <c r="L73">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J74">
+        <v>118.965517241379</v>
+      </c>
+      <c r="K74">
+        <v>19.2274678111588</v>
+      </c>
+      <c r="L74">
+        <v>2.4034334763947989</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J75">
+        <v>148.96551724137899</v>
+      </c>
+      <c r="K75">
+        <v>13.5622317596566</v>
+      </c>
+      <c r="L75">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J76">
+        <v>180</v>
+      </c>
+      <c r="K76">
+        <v>9.6137339055793998</v>
+      </c>
+      <c r="L76">
+        <v>2.4034334763948006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J77">
+        <v>208.96551724137899</v>
+      </c>
+      <c r="K77">
+        <v>6.5236051502145997</v>
+      </c>
+      <c r="L77">
+        <v>1.8884120171673704</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.45">
+      <c r="J78">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>5.1502145922746703</v>
+      </c>
+      <c r="L78">
+        <v>1.8884120171673899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6960b7ce0e258e5d224c1a71edff679">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7db7ba54f101f424e932c64edcbdaa0" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -3285,7 +4411,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3294,13 +4420,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8CCCB-E073-4D73-9695-C91416D097D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3319,26 +4455,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/data/CompiledDataSet.xlsx
+++ b/tests/data/CompiledDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E4F2BB-5A0B-4B6D-849F-7AD76D999ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0530B-94EF-4509-96AE-0B2D6B36C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="29026" windowHeight="15825" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet_1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Stevens_2012_placebo" sheetId="49" r:id="rId3"/>
     <sheet name="WrongSheet" sheetId="50" r:id="rId4"/>
     <sheet name="CorrectSheet_additionalCols" sheetId="51" r:id="rId5"/>
+    <sheet name="CorrectSheet_negativeError" sheetId="52" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="74">
   <si>
     <t>Time [h]</t>
   </si>
@@ -1321,25 +1322,25 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1852,16 +1853,16 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.3984375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.59765625" style="3"/>
+    <col min="1" max="1" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1901,10 +1902,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1912,10 +1913,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
@@ -2028,9 +2029,9 @@
       <selection sqref="A1:N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J2">
         <v>0</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J3">
         <v>13.172268907563</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J4">
         <v>29.403361344537799</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J5">
         <v>44.647058823529399</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J6">
         <v>73.079831932773104</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J7">
         <v>88.273109243697405</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J8">
         <v>105.48319327730999</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J9">
         <v>118.66386554621801</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J10">
         <v>149.029411764705</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J11">
         <v>180.35294117647001</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J12">
         <v>210.65966386554601</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J13">
         <v>240.94537815126</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J14">
         <v>0</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J15">
         <v>14.218487394957901</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J16">
         <v>27.403361344537799</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J17">
         <v>43.634453781512597</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J18">
         <v>57.8403361344537</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J19">
         <v>74.067226890756302</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J20">
         <v>89.260504201680604</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J21">
         <v>105.462184873949</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J22">
         <v>119.642857142857</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J23">
         <v>150.004201680672</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J24">
         <v>179.31932773109199</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J25">
         <v>209.62605042016801</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J26">
         <v>240.915966386554</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J27">
         <v>0.967598097502957</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J28">
         <v>16.306480380499401</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J29">
         <v>30.659928656361402</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J30">
         <v>45.026753864447002</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J31">
         <v>61.475921521997499</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J32">
         <v>74.839476813317404</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J33">
         <v>90.303210463733507</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J34">
         <v>105.76248513674101</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J35">
         <v>121.23513674197299</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J36">
         <v>150.133769322235</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J37">
         <v>182.16260404280601</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J38">
         <v>211.09690844233</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J39">
         <v>242.11355529131899</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J40">
         <v>0.967598097502957</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J41">
         <v>16.306480380499401</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J42">
         <v>30.659928656361402</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J43">
         <v>45.026753864447002</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J44">
         <v>61.475921521997499</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J45">
         <v>74.839476813317404</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J46">
         <v>90.303210463733507</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J47">
         <v>105.76248513674101</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J48">
         <v>121.23513674197299</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J49">
         <v>150.133769322235</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J50">
         <v>182.16260404280601</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J51">
         <v>211.09690844233</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J52">
         <v>242.11355529131899</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J53">
         <v>0</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J54">
         <v>14.482758620689699</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J55">
         <v>28.965517241379299</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J56">
         <v>45.517241379310398</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J57">
         <v>58.965517241379402</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J58">
         <v>74.482758620689694</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J59">
         <v>88.965517241379402</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J60">
         <v>104.482758620689</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J61">
         <v>120</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J62">
         <v>150</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J63">
         <v>180</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J64">
         <v>211.03448275861999</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J65">
         <v>238.96551724137899</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J66">
         <v>0</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J67">
         <v>14.482758620689699</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J68">
         <v>26.8965517241379</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J69">
         <v>44.482758620689701</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J70">
         <v>61.034482758620797</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J71">
         <v>74.482758620689694</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J72">
         <v>90.000000000000099</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J73">
         <v>104.482758620689</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J74">
         <v>118.965517241379</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J75">
         <v>148.96551724137899</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J76">
         <v>180</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J77">
         <v>208.96551724137899</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J78">
         <v>240</v>
       </c>
@@ -3078,9 +3079,9 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3133,13 +3134,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C19160-8B30-4C70-A987-7318B15033AF}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N78"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J2">
         <v>0</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J3">
         <v>13.172268907563</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J4">
         <v>29.403361344537799</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J5">
         <v>44.647058823529399</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J6">
         <v>73.079831932773104</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J7">
         <v>88.273109243697405</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J8">
         <v>105.48319327730999</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J9">
         <v>118.66386554621801</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J10">
         <v>149.029411764705</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J11">
         <v>180.35294117647001</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J12">
         <v>210.65966386554601</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J13">
         <v>240.94537815126</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J14">
         <v>0</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J15">
         <v>14.218487394957901</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J16">
         <v>27.403361344537799</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J17">
         <v>43.634453781512597</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J18">
         <v>57.8403361344537</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J19">
         <v>74.067226890756302</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J20">
         <v>89.260504201680604</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J21">
         <v>105.462184873949</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J22">
         <v>119.642857142857</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J23">
         <v>150.004201680672</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J24">
         <v>179.31932773109199</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J25">
         <v>209.62605042016801</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J26">
         <v>240.915966386554</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J27">
         <v>0.967598097502957</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J28">
         <v>16.306480380499401</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J29">
         <v>30.659928656361402</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J30">
         <v>45.026753864447002</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J31">
         <v>61.475921521997499</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J32">
         <v>74.839476813317404</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J33">
         <v>90.303210463733507</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J34">
         <v>105.76248513674101</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J35">
         <v>121.23513674197299</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J36">
         <v>150.133769322235</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J37">
         <v>182.16260404280601</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J38">
         <v>211.09690844233</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J39">
         <v>242.11355529131899</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J40">
         <v>0.967598097502957</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J41">
         <v>16.306480380499401</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J42">
         <v>30.659928656361402</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J43">
         <v>45.026753864447002</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J44">
         <v>61.475921521997499</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J45">
         <v>74.839476813317404</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J46">
         <v>90.303210463733507</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J47">
         <v>105.76248513674101</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J48">
         <v>121.23513674197299</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J49">
         <v>150.133769322235</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J50">
         <v>182.16260404280601</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J51">
         <v>211.09690844233</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J52">
         <v>242.11355529131899</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J53">
         <v>0</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J54">
         <v>14.482758620689699</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J55">
         <v>28.965517241379299</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J56">
         <v>45.517241379310398</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J57">
         <v>58.965517241379402</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J58">
         <v>74.482758620689694</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J59">
         <v>88.965517241379402</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J60">
         <v>104.482758620689</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J61">
         <v>120</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J62">
         <v>150</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J63">
         <v>180</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J64">
         <v>211.03448275861999</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J65">
         <v>238.96551724137899</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J66">
         <v>0</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J67">
         <v>14.482758620689699</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J68">
         <v>26.8965517241379</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J69">
         <v>44.482758620689701</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J70">
         <v>61.034482758620797</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J71">
         <v>74.482758620689694</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J72">
         <v>90.000000000000099</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J73">
         <v>104.482758620689</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J74">
         <v>118.965517241379</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J75">
         <v>148.96551724137899</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J76">
         <v>180</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J77">
         <v>208.96551724137899</v>
       </c>
@@ -4169,7 +4170,1066 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>5.1502145922746703</v>
+      </c>
+      <c r="L78">
+        <v>1.8884120171673899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BDD5F-6183-4F95-9E5B-E5759D0B37BB}">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>13.172268907563</v>
+      </c>
+      <c r="K3">
+        <v>93.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>29.403361344537799</v>
+      </c>
+      <c r="K4">
+        <v>84.1666666666666</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>44.647058823529399</v>
+      </c>
+      <c r="K5">
+        <v>72.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>73.079831932773104</v>
+      </c>
+      <c r="K6">
+        <v>52.9166666666666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>88.273109243697405</v>
+      </c>
+      <c r="K7">
+        <v>46.25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>105.48319327730999</v>
+      </c>
+      <c r="K8">
+        <v>39.5833333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>118.66386554621801</v>
+      </c>
+      <c r="K9">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>149.029411764705</v>
+      </c>
+      <c r="K10">
+        <v>21.25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>180.35294117647001</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>210.65966386554601</v>
+      </c>
+      <c r="K12">
+        <v>9.5833333333333197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>240.94537815126</v>
+      </c>
+      <c r="K13">
+        <v>6.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>14.218487394957901</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>27.403361344537799</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>43.634453781512597</v>
+      </c>
+      <c r="K17">
+        <v>72.9166666666666</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>57.8403361344537</v>
+      </c>
+      <c r="K18">
+        <v>64.1666666666666</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>74.067226890756302</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>89.260504201680604</v>
+      </c>
+      <c r="K20">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>105.462184873949</v>
+      </c>
+      <c r="K21">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="N21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>119.642857142857</v>
+      </c>
+      <c r="K22">
+        <v>35.4166666666666</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>150.004201680672</v>
+      </c>
+      <c r="K23">
+        <v>24.5833333333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>179.31932773109199</v>
+      </c>
+      <c r="K24">
+        <v>17.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>209.62605042016801</v>
+      </c>
+      <c r="K25">
+        <v>12.0833333333333</v>
+      </c>
+      <c r="N25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>240.915966386554</v>
+      </c>
+      <c r="K26">
+        <v>9.1666666666666803</v>
+      </c>
+      <c r="N26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K27">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L27">
+        <v>-4.8275862068966102</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K28">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L28">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K29">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L29">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K30">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L30">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K31">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L31">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K32">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L32">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K33">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L33">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K34">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L34">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K35">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L35">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K37">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L37">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K38">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K39">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K40">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L40">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K41">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L41">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K42">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L42">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K43">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L43">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K44">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L44">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K45">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L45">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K46">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L46">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K47">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L47">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K48">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L48">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K50">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L50">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K51">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K52">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>25.579399141630901</v>
+      </c>
+      <c r="L53">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K54">
+        <v>32.446351931330398</v>
+      </c>
+      <c r="L54">
+        <v>2.9184549356223002</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>28.965517241379299</v>
+      </c>
+      <c r="K55">
+        <v>32.103004291845401</v>
+      </c>
+      <c r="L55">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>45.517241379310398</v>
+      </c>
+      <c r="K56">
+        <v>30.2145922746781</v>
+      </c>
+      <c r="L56">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>58.965517241379402</v>
+      </c>
+      <c r="K57">
+        <v>29.0128755364806</v>
+      </c>
+      <c r="L57">
+        <v>2.2317596566523008</v>
+      </c>
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K58">
+        <v>25.7510729613733</v>
+      </c>
+      <c r="L58">
+        <v>2.0600858369097992</v>
+      </c>
+      <c r="N58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>88.965517241379402</v>
+      </c>
+      <c r="K59">
+        <v>22.317596566523601</v>
+      </c>
+      <c r="L59">
+        <v>1.7167381974249025</v>
+      </c>
+      <c r="N59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K60">
+        <v>19.399141630901202</v>
+      </c>
+      <c r="L60">
+        <v>1.716738197424803</v>
+      </c>
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>16.480686695278902</v>
+      </c>
+      <c r="L61">
+        <v>1.5450643776824009</v>
+      </c>
+      <c r="N61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>11.158798283261801</v>
+      </c>
+      <c r="L62">
+        <v>1.2017167381974208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>180</v>
+      </c>
+      <c r="K63">
+        <v>8.2403433476394792</v>
+      </c>
+      <c r="L63">
+        <v>0.85836909871243883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>211.03448275861999</v>
+      </c>
+      <c r="K64">
+        <v>5.3218884120171701</v>
+      </c>
+      <c r="L64">
+        <v>1.0300429184549404</v>
+      </c>
+      <c r="N64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>238.96551724137899</v>
+      </c>
+      <c r="K65">
+        <v>4.1201716738197396</v>
+      </c>
+      <c r="L65">
+        <v>0.51502145922746978</v>
+      </c>
+      <c r="N65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>24.206008583690899</v>
+      </c>
+      <c r="L66">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K67">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L67">
+        <v>2.5751072961373005</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <v>26.8965517241379</v>
+      </c>
+      <c r="K68">
+        <v>32.274678111587903</v>
+      </c>
+      <c r="L68">
+        <v>2.9184549356223037</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <v>44.482758620689701</v>
+      </c>
+      <c r="K69">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L69">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J70">
+        <v>61.034482758620797</v>
+      </c>
+      <c r="K70">
+        <v>29.356223175965599</v>
+      </c>
+      <c r="L70">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K71">
+        <v>27.9828326180257</v>
+      </c>
+      <c r="L71">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J72">
+        <v>90.000000000000099</v>
+      </c>
+      <c r="K72">
+        <v>25.0643776824034</v>
+      </c>
+      <c r="L72">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J73">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K73">
+        <v>21.8025751072961</v>
+      </c>
+      <c r="L73">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J74">
+        <v>118.965517241379</v>
+      </c>
+      <c r="K74">
+        <v>19.2274678111588</v>
+      </c>
+      <c r="L74">
+        <v>2.4034334763947989</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J75">
+        <v>148.96551724137899</v>
+      </c>
+      <c r="K75">
+        <v>13.5622317596566</v>
+      </c>
+      <c r="L75">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <v>180</v>
+      </c>
+      <c r="K76">
+        <v>9.6137339055793998</v>
+      </c>
+      <c r="L76">
+        <v>2.4034334763948006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <v>208.96551724137899</v>
+      </c>
+      <c r="K77">
+        <v>6.5236051502145997</v>
+      </c>
+      <c r="L77">
+        <v>1.8884120171673704</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J78">
         <v>240</v>
       </c>
@@ -4189,9 +5249,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4412,26 +5475,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4456,9 +5508,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/data/CompiledDataSet.xlsx
+++ b/tests/data/CompiledDataSet.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\esqlabsR\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0530B-94EF-4509-96AE-0B2D6B36C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED61023-E598-4D2D-96C2-92C59C847483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="875" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet_1" sheetId="1" r:id="rId1"/>
-    <sheet name="MetaInfo" sheetId="48" r:id="rId2"/>
-    <sheet name="Stevens_2012_placebo" sheetId="49" r:id="rId3"/>
-    <sheet name="WrongSheet" sheetId="50" r:id="rId4"/>
-    <sheet name="CorrectSheet_additionalCols" sheetId="51" r:id="rId5"/>
-    <sheet name="CorrectSheet_negativeError" sheetId="52" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="53" r:id="rId2"/>
+    <sheet name="MetaInfo" sheetId="48" r:id="rId3"/>
+    <sheet name="Stevens_2012_placebo" sheetId="49" r:id="rId4"/>
+    <sheet name="WrongSheet" sheetId="50" r:id="rId5"/>
+    <sheet name="CorrectSheet_additionalCols" sheetId="51" r:id="rId6"/>
+    <sheet name="CorrectSheet_negativeError" sheetId="52" r:id="rId7"/>
+    <sheet name="Test_MeanData" sheetId="54" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="118">
   <si>
     <t>Time [h]</t>
   </si>
@@ -431,6 +433,138 @@
   </si>
   <si>
     <t>Sita_dist</t>
+  </si>
+  <si>
+    <t>3mg</t>
+  </si>
+  <si>
+    <t>PLASMA</t>
+  </si>
+  <si>
+    <t>Venous Blood</t>
+  </si>
+  <si>
+    <t>Test_MeanData</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>0mg</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>001-119</t>
+  </si>
+  <si>
+    <t>001-118</t>
+  </si>
+  <si>
+    <t>001-117</t>
+  </si>
+  <si>
+    <t>001-116</t>
+  </si>
+  <si>
+    <t>001-108</t>
+  </si>
+  <si>
+    <t>001-106</t>
+  </si>
+  <si>
+    <t>001-105</t>
+  </si>
+  <si>
+    <t>001-104</t>
+  </si>
+  <si>
+    <t>001-098</t>
+  </si>
+  <si>
+    <t>001-097</t>
+  </si>
+  <si>
+    <t>001-096</t>
+  </si>
+  <si>
+    <t>001-093</t>
+  </si>
+  <si>
+    <t>001-082</t>
+  </si>
+  <si>
+    <t>001-081</t>
+  </si>
+  <si>
+    <t>001-075</t>
+  </si>
+  <si>
+    <t>001-070</t>
+  </si>
+  <si>
+    <t>001-064</t>
+  </si>
+  <si>
+    <t>001-062</t>
+  </si>
+  <si>
+    <t>001-059</t>
+  </si>
+  <si>
+    <t>001-052</t>
+  </si>
+  <si>
+    <t>001-047</t>
+  </si>
+  <si>
+    <t>001-046</t>
+  </si>
+  <si>
+    <t>001-045</t>
+  </si>
+  <si>
+    <t>001-043</t>
+  </si>
+  <si>
+    <t>001-042</t>
+  </si>
+  <si>
+    <t>001-036</t>
+  </si>
+  <si>
+    <t>001-035</t>
+  </si>
+  <si>
+    <t>001-029</t>
+  </si>
+  <si>
+    <t>001-026</t>
+  </si>
+  <si>
+    <t>001-025</t>
+  </si>
+  <si>
+    <t>001-021</t>
+  </si>
+  <si>
+    <t>001-019</t>
+  </si>
+  <si>
+    <t>001-017</t>
+  </si>
+  <si>
+    <t>001-007</t>
+  </si>
+  <si>
+    <t>001-005</t>
+  </si>
+  <si>
+    <t>001-003</t>
+  </si>
+  <si>
+    <t>001-002</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -960,51 +1094,54 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,7 +1157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1322,25 +1459,25 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.64453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.64453125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.29296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1422,7 +1559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1498,7 +1635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1536,7 +1673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1574,7 +1711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1612,7 +1749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1650,7 +1787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1688,7 +1825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1726,7 +1863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1764,7 +1901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1802,7 +1939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1846,6 +1983,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2486B95E-83AC-4775-A4DA-8768A14B2FBD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DF631D-DF5E-4A3F-BA90-F9B6EDEECD77}">
   <dimension ref="C1:I27"/>
   <sheetViews>
@@ -1853,16 +2002,16 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.6328125" style="3"/>
+    <col min="1" max="1" width="12.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.64453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.3515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.64453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.5">
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.5">
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +2043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.5">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1902,10 +2051,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.5">
       <c r="C8" s="4"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.5">
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1913,10 +2062,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.5">
       <c r="C14" s="4"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +2073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1941,7 +2090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.5">
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1949,7 +2098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.5">
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +2106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.5">
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1965,7 +2114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1976,7 +2125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1987,7 +2136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2001,7 +2150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
@@ -2021,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E8DDA-F3F4-4710-A6B6-93A80B4A8C1A}">
   <dimension ref="A1:N78"/>
   <sheetViews>
@@ -2029,9 +2178,9 @@
       <selection sqref="A1:N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2075,7 +2224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J2">
         <v>0</v>
       </c>
@@ -2086,7 +2235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J3">
         <v>13.172268907563</v>
       </c>
@@ -2097,7 +2246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J4">
         <v>29.403361344537799</v>
       </c>
@@ -2108,7 +2257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J5">
         <v>44.647058823529399</v>
       </c>
@@ -2119,7 +2268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J6">
         <v>73.079831932773104</v>
       </c>
@@ -2130,7 +2279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J7">
         <v>88.273109243697405</v>
       </c>
@@ -2141,7 +2290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J8">
         <v>105.48319327730999</v>
       </c>
@@ -2152,7 +2301,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J9">
         <v>118.66386554621801</v>
       </c>
@@ -2163,7 +2312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J10">
         <v>149.029411764705</v>
       </c>
@@ -2174,7 +2323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J11">
         <v>180.35294117647001</v>
       </c>
@@ -2185,7 +2334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J12">
         <v>210.65966386554601</v>
       </c>
@@ -2196,7 +2345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J13">
         <v>240.94537815126</v>
       </c>
@@ -2207,7 +2356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J14">
         <v>0</v>
       </c>
@@ -2218,7 +2367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J15">
         <v>14.218487394957901</v>
       </c>
@@ -2229,7 +2378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J16">
         <v>27.403361344537799</v>
       </c>
@@ -2240,7 +2389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J17">
         <v>43.634453781512597</v>
       </c>
@@ -2251,7 +2400,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J18">
         <v>57.8403361344537</v>
       </c>
@@ -2262,7 +2411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J19">
         <v>74.067226890756302</v>
       </c>
@@ -2273,7 +2422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J20">
         <v>89.260504201680604</v>
       </c>
@@ -2284,7 +2433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J21">
         <v>105.462184873949</v>
       </c>
@@ -2295,7 +2444,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J22">
         <v>119.642857142857</v>
       </c>
@@ -2306,7 +2455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J23">
         <v>150.004201680672</v>
       </c>
@@ -2317,7 +2466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J24">
         <v>179.31932773109199</v>
       </c>
@@ -2328,7 +2477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J25">
         <v>209.62605042016801</v>
       </c>
@@ -2339,7 +2488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J26">
         <v>240.915966386554</v>
       </c>
@@ -2350,7 +2499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J27">
         <v>0.967598097502957</v>
       </c>
@@ -2364,7 +2513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J28">
         <v>16.306480380499401</v>
       </c>
@@ -2378,7 +2527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J29">
         <v>30.659928656361402</v>
       </c>
@@ -2392,7 +2541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J30">
         <v>45.026753864447002</v>
       </c>
@@ -2406,7 +2555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J31">
         <v>61.475921521997499</v>
       </c>
@@ -2420,7 +2569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J32">
         <v>74.839476813317404</v>
       </c>
@@ -2434,7 +2583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J33">
         <v>90.303210463733507</v>
       </c>
@@ -2448,7 +2597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J34">
         <v>105.76248513674101</v>
       </c>
@@ -2462,7 +2611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J35">
         <v>121.23513674197299</v>
       </c>
@@ -2476,7 +2625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J36">
         <v>150.133769322235</v>
       </c>
@@ -2490,7 +2639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J37">
         <v>182.16260404280601</v>
       </c>
@@ -2504,7 +2653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J38">
         <v>211.09690844233</v>
       </c>
@@ -2515,7 +2664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J39">
         <v>242.11355529131899</v>
       </c>
@@ -2526,7 +2675,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J40">
         <v>0.967598097502957</v>
       </c>
@@ -2540,7 +2689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J41">
         <v>16.306480380499401</v>
       </c>
@@ -2554,7 +2703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J42">
         <v>30.659928656361402</v>
       </c>
@@ -2568,7 +2717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J43">
         <v>45.026753864447002</v>
       </c>
@@ -2582,7 +2731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J44">
         <v>61.475921521997499</v>
       </c>
@@ -2596,7 +2745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J45">
         <v>74.839476813317404</v>
       </c>
@@ -2610,7 +2759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J46">
         <v>90.303210463733507</v>
       </c>
@@ -2624,7 +2773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J47">
         <v>105.76248513674101</v>
       </c>
@@ -2638,7 +2787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J48">
         <v>121.23513674197299</v>
       </c>
@@ -2652,7 +2801,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J49">
         <v>150.133769322235</v>
       </c>
@@ -2666,7 +2815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J50">
         <v>182.16260404280601</v>
       </c>
@@ -2680,7 +2829,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J51">
         <v>211.09690844233</v>
       </c>
@@ -2691,7 +2840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J52">
         <v>242.11355529131899</v>
       </c>
@@ -2702,7 +2851,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J53">
         <v>0</v>
       </c>
@@ -2716,7 +2865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J54">
         <v>14.482758620689699</v>
       </c>
@@ -2730,7 +2879,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J55">
         <v>28.965517241379299</v>
       </c>
@@ -2744,7 +2893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J56">
         <v>45.517241379310398</v>
       </c>
@@ -2758,7 +2907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J57">
         <v>58.965517241379402</v>
       </c>
@@ -2772,7 +2921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J58">
         <v>74.482758620689694</v>
       </c>
@@ -2786,7 +2935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J59">
         <v>88.965517241379402</v>
       </c>
@@ -2800,7 +2949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J60">
         <v>104.482758620689</v>
       </c>
@@ -2814,7 +2963,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J61">
         <v>120</v>
       </c>
@@ -2828,7 +2977,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J62">
         <v>150</v>
       </c>
@@ -2842,7 +2991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J63">
         <v>180</v>
       </c>
@@ -2856,7 +3005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J64">
         <v>211.03448275861999</v>
       </c>
@@ -2870,7 +3019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J65">
         <v>238.96551724137899</v>
       </c>
@@ -2884,7 +3033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J66">
         <v>0</v>
       </c>
@@ -2898,7 +3047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J67">
         <v>14.482758620689699</v>
       </c>
@@ -2912,7 +3061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J68">
         <v>26.8965517241379</v>
       </c>
@@ -2926,7 +3075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J69">
         <v>44.482758620689701</v>
       </c>
@@ -2940,7 +3089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J70">
         <v>61.034482758620797</v>
       </c>
@@ -2954,7 +3103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J71">
         <v>74.482758620689694</v>
       </c>
@@ -2968,7 +3117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J72">
         <v>90.000000000000099</v>
       </c>
@@ -2982,7 +3131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J73">
         <v>104.482758620689</v>
       </c>
@@ -2996,7 +3145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J74">
         <v>118.965517241379</v>
       </c>
@@ -3010,7 +3159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J75">
         <v>148.96551724137899</v>
       </c>
@@ -3024,7 +3173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J76">
         <v>180</v>
       </c>
@@ -3038,7 +3187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J77">
         <v>208.96551724137899</v>
       </c>
@@ -3052,7 +3201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J78">
         <v>240</v>
       </c>
@@ -3071,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB5B98-2408-40BA-99F9-228ECCEE7326}">
   <dimension ref="A1:N1"/>
   <sheetViews>
@@ -3079,9 +3228,9 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3130,7 +3279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C19160-8B30-4C70-A987-7318B15033AF}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
@@ -3138,9 +3287,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3184,7 +3333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J2">
         <v>0</v>
       </c>
@@ -3195,7 +3344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J3">
         <v>13.172268907563</v>
       </c>
@@ -3206,7 +3355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J4">
         <v>29.403361344537799</v>
       </c>
@@ -3217,7 +3366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J5">
         <v>44.647058823529399</v>
       </c>
@@ -3228,7 +3377,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J6">
         <v>73.079831932773104</v>
       </c>
@@ -3242,7 +3391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J7">
         <v>88.273109243697405</v>
       </c>
@@ -3256,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J8">
         <v>105.48319327730999</v>
       </c>
@@ -3270,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J9">
         <v>118.66386554621801</v>
       </c>
@@ -3281,7 +3430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J10">
         <v>149.029411764705</v>
       </c>
@@ -3292,7 +3441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J11">
         <v>180.35294117647001</v>
       </c>
@@ -3303,7 +3452,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J12">
         <v>210.65966386554601</v>
       </c>
@@ -3314,7 +3463,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J13">
         <v>240.94537815126</v>
       </c>
@@ -3325,7 +3474,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J14">
         <v>0</v>
       </c>
@@ -3336,7 +3485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J15">
         <v>14.218487394957901</v>
       </c>
@@ -3347,7 +3496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J16">
         <v>27.403361344537799</v>
       </c>
@@ -3358,7 +3507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J17">
         <v>43.634453781512597</v>
       </c>
@@ -3369,7 +3518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J18">
         <v>57.8403361344537</v>
       </c>
@@ -3380,7 +3529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J19">
         <v>74.067226890756302</v>
       </c>
@@ -3391,7 +3540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J20">
         <v>89.260504201680604</v>
       </c>
@@ -3402,7 +3551,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J21">
         <v>105.462184873949</v>
       </c>
@@ -3413,7 +3562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J22">
         <v>119.642857142857</v>
       </c>
@@ -3424,7 +3573,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J23">
         <v>150.004201680672</v>
       </c>
@@ -3435,7 +3584,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J24">
         <v>179.31932773109199</v>
       </c>
@@ -3446,7 +3595,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J25">
         <v>209.62605042016801</v>
       </c>
@@ -3457,7 +3606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J26">
         <v>240.915966386554</v>
       </c>
@@ -3468,7 +3617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J27">
         <v>0.967598097502957</v>
       </c>
@@ -3482,7 +3631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J28">
         <v>16.306480380499401</v>
       </c>
@@ -3496,7 +3645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J29">
         <v>30.659928656361402</v>
       </c>
@@ -3510,7 +3659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J30">
         <v>45.026753864447002</v>
       </c>
@@ -3524,7 +3673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J31">
         <v>61.475921521997499</v>
       </c>
@@ -3538,7 +3687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J32">
         <v>74.839476813317404</v>
       </c>
@@ -3552,7 +3701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J33">
         <v>90.303210463733507</v>
       </c>
@@ -3566,7 +3715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J34">
         <v>105.76248513674101</v>
       </c>
@@ -3580,7 +3729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J35">
         <v>121.23513674197299</v>
       </c>
@@ -3594,7 +3743,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J36">
         <v>150.133769322235</v>
       </c>
@@ -3608,7 +3757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J37">
         <v>182.16260404280601</v>
       </c>
@@ -3622,7 +3771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J38">
         <v>211.09690844233</v>
       </c>
@@ -3633,7 +3782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J39">
         <v>242.11355529131899</v>
       </c>
@@ -3644,7 +3793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J40">
         <v>0.967598097502957</v>
       </c>
@@ -3658,7 +3807,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J41">
         <v>16.306480380499401</v>
       </c>
@@ -3672,7 +3821,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J42">
         <v>30.659928656361402</v>
       </c>
@@ -3686,7 +3835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J43">
         <v>45.026753864447002</v>
       </c>
@@ -3700,7 +3849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J44">
         <v>61.475921521997499</v>
       </c>
@@ -3714,7 +3863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J45">
         <v>74.839476813317404</v>
       </c>
@@ -3728,7 +3877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J46">
         <v>90.303210463733507</v>
       </c>
@@ -3742,7 +3891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J47">
         <v>105.76248513674101</v>
       </c>
@@ -3756,7 +3905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J48">
         <v>121.23513674197299</v>
       </c>
@@ -3770,7 +3919,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J49">
         <v>150.133769322235</v>
       </c>
@@ -3784,7 +3933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J50">
         <v>182.16260404280601</v>
       </c>
@@ -3798,7 +3947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J51">
         <v>211.09690844233</v>
       </c>
@@ -3809,7 +3958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J52">
         <v>242.11355529131899</v>
       </c>
@@ -3820,7 +3969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J53">
         <v>0</v>
       </c>
@@ -3834,7 +3983,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J54">
         <v>14.482758620689699</v>
       </c>
@@ -3848,7 +3997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J55">
         <v>28.965517241379299</v>
       </c>
@@ -3862,7 +4011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J56">
         <v>45.517241379310398</v>
       </c>
@@ -3876,7 +4025,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J57">
         <v>58.965517241379402</v>
       </c>
@@ -3890,7 +4039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J58">
         <v>74.482758620689694</v>
       </c>
@@ -3904,7 +4053,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J59">
         <v>88.965517241379402</v>
       </c>
@@ -3918,7 +4067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J60">
         <v>104.482758620689</v>
       </c>
@@ -3932,7 +4081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J61">
         <v>120</v>
       </c>
@@ -3946,7 +4095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J62">
         <v>150</v>
       </c>
@@ -3960,7 +4109,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J63">
         <v>180</v>
       </c>
@@ -3974,7 +4123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J64">
         <v>211.03448275861999</v>
       </c>
@@ -3988,7 +4137,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J65">
         <v>238.96551724137899</v>
       </c>
@@ -4002,7 +4151,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J66">
         <v>0</v>
       </c>
@@ -4016,7 +4165,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J67">
         <v>14.482758620689699</v>
       </c>
@@ -4030,7 +4179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J68">
         <v>26.8965517241379</v>
       </c>
@@ -4044,7 +4193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J69">
         <v>44.482758620689701</v>
       </c>
@@ -4058,7 +4207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J70">
         <v>61.034482758620797</v>
       </c>
@@ -4072,7 +4221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J71">
         <v>74.482758620689694</v>
       </c>
@@ -4086,7 +4235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J72">
         <v>90.000000000000099</v>
       </c>
@@ -4100,7 +4249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J73">
         <v>104.482758620689</v>
       </c>
@@ -4114,7 +4263,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J74">
         <v>118.965517241379</v>
       </c>
@@ -4128,7 +4277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J75">
         <v>148.96551724137899</v>
       </c>
@@ -4142,7 +4291,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J76">
         <v>180</v>
       </c>
@@ -4156,7 +4305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J77">
         <v>208.96551724137899</v>
       </c>
@@ -4170,7 +4319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J78">
         <v>240</v>
       </c>
@@ -4189,17 +4338,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BDD5F-6183-4F95-9E5B-E5759D0B37BB}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4243,7 +4392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J2">
         <v>0</v>
       </c>
@@ -4254,7 +4403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J3">
         <v>13.172268907563</v>
       </c>
@@ -4265,7 +4414,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J4">
         <v>29.403361344537799</v>
       </c>
@@ -4276,7 +4425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J5">
         <v>44.647058823529399</v>
       </c>
@@ -4287,7 +4436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J6">
         <v>73.079831932773104</v>
       </c>
@@ -4301,7 +4450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J7">
         <v>88.273109243697405</v>
       </c>
@@ -4315,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J8">
         <v>105.48319327730999</v>
       </c>
@@ -4329,7 +4478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J9">
         <v>118.66386554621801</v>
       </c>
@@ -4340,7 +4489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J10">
         <v>149.029411764705</v>
       </c>
@@ -4351,7 +4500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J11">
         <v>180.35294117647001</v>
       </c>
@@ -4362,7 +4511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J12">
         <v>210.65966386554601</v>
       </c>
@@ -4373,7 +4522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J13">
         <v>240.94537815126</v>
       </c>
@@ -4384,7 +4533,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J14">
         <v>0</v>
       </c>
@@ -4395,7 +4544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J15">
         <v>14.218487394957901</v>
       </c>
@@ -4406,7 +4555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="J16">
         <v>27.403361344537799</v>
       </c>
@@ -4417,7 +4566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J17">
         <v>43.634453781512597</v>
       </c>
@@ -4428,7 +4577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J18">
         <v>57.8403361344537</v>
       </c>
@@ -4439,7 +4588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J19">
         <v>74.067226890756302</v>
       </c>
@@ -4450,7 +4599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J20">
         <v>89.260504201680604</v>
       </c>
@@ -4461,7 +4610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J21">
         <v>105.462184873949</v>
       </c>
@@ -4472,7 +4621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J22">
         <v>119.642857142857</v>
       </c>
@@ -4483,7 +4632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J23">
         <v>150.004201680672</v>
       </c>
@@ -4494,7 +4643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J24">
         <v>179.31932773109199</v>
       </c>
@@ -4505,7 +4654,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J25">
         <v>209.62605042016801</v>
       </c>
@@ -4516,7 +4665,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J26">
         <v>240.915966386554</v>
       </c>
@@ -4527,7 +4676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J27">
         <v>0.967598097502957</v>
       </c>
@@ -4541,7 +4690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J28">
         <v>16.306480380499401</v>
       </c>
@@ -4555,7 +4704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J29">
         <v>30.659928656361402</v>
       </c>
@@ -4569,7 +4718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J30">
         <v>45.026753864447002</v>
       </c>
@@ -4583,7 +4732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J31">
         <v>61.475921521997499</v>
       </c>
@@ -4597,7 +4746,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J32">
         <v>74.839476813317404</v>
       </c>
@@ -4611,7 +4760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J33">
         <v>90.303210463733507</v>
       </c>
@@ -4625,7 +4774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J34">
         <v>105.76248513674101</v>
       </c>
@@ -4639,7 +4788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J35">
         <v>121.23513674197299</v>
       </c>
@@ -4653,7 +4802,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J36">
         <v>150.133769322235</v>
       </c>
@@ -4667,7 +4816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J37">
         <v>182.16260404280601</v>
       </c>
@@ -4681,7 +4830,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J38">
         <v>211.09690844233</v>
       </c>
@@ -4692,7 +4841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J39">
         <v>242.11355529131899</v>
       </c>
@@ -4703,7 +4852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J40">
         <v>0.967598097502957</v>
       </c>
@@ -4717,7 +4866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J41">
         <v>16.306480380499401</v>
       </c>
@@ -4731,7 +4880,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J42">
         <v>30.659928656361402</v>
       </c>
@@ -4745,7 +4894,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J43">
         <v>45.026753864447002</v>
       </c>
@@ -4759,7 +4908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J44">
         <v>61.475921521997499</v>
       </c>
@@ -4773,7 +4922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J45">
         <v>74.839476813317404</v>
       </c>
@@ -4787,7 +4936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J46">
         <v>90.303210463733507</v>
       </c>
@@ -4801,7 +4950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J47">
         <v>105.76248513674101</v>
       </c>
@@ -4815,7 +4964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J48">
         <v>121.23513674197299</v>
       </c>
@@ -4829,7 +4978,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J49">
         <v>150.133769322235</v>
       </c>
@@ -4843,7 +4992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J50">
         <v>182.16260404280601</v>
       </c>
@@ -4857,7 +5006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J51">
         <v>211.09690844233</v>
       </c>
@@ -4868,7 +5017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J52">
         <v>242.11355529131899</v>
       </c>
@@ -4879,7 +5028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J53">
         <v>0</v>
       </c>
@@ -4893,7 +5042,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J54">
         <v>14.482758620689699</v>
       </c>
@@ -4907,7 +5056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J55">
         <v>28.965517241379299</v>
       </c>
@@ -4921,7 +5070,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J56">
         <v>45.517241379310398</v>
       </c>
@@ -4935,7 +5084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J57">
         <v>58.965517241379402</v>
       </c>
@@ -4949,7 +5098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J58">
         <v>74.482758620689694</v>
       </c>
@@ -4963,7 +5112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J59">
         <v>88.965517241379402</v>
       </c>
@@ -4977,7 +5126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J60">
         <v>104.482758620689</v>
       </c>
@@ -4991,7 +5140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J61">
         <v>120</v>
       </c>
@@ -5005,7 +5154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J62">
         <v>150</v>
       </c>
@@ -5019,7 +5168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J63">
         <v>180</v>
       </c>
@@ -5033,7 +5182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J64">
         <v>211.03448275861999</v>
       </c>
@@ -5047,7 +5196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J65">
         <v>238.96551724137899</v>
       </c>
@@ -5061,7 +5210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J66">
         <v>0</v>
       </c>
@@ -5075,7 +5224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J67">
         <v>14.482758620689699</v>
       </c>
@@ -5089,7 +5238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J68">
         <v>26.8965517241379</v>
       </c>
@@ -5103,7 +5252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J69">
         <v>44.482758620689701</v>
       </c>
@@ -5117,7 +5266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J70">
         <v>61.034482758620797</v>
       </c>
@@ -5131,7 +5280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J71">
         <v>74.482758620689694</v>
       </c>
@@ -5145,7 +5294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J72">
         <v>90.000000000000099</v>
       </c>
@@ -5159,7 +5308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J73">
         <v>104.482758620689</v>
       </c>
@@ -5173,7 +5322,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J74">
         <v>118.965517241379</v>
       </c>
@@ -5187,7 +5336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J75">
         <v>148.96551724137899</v>
       </c>
@@ -5201,7 +5350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J76">
         <v>180</v>
       </c>
@@ -5215,7 +5364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J77">
         <v>208.96551724137899</v>
       </c>
@@ -5229,7 +5378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.5">
       <c r="J78">
         <v>240</v>
       </c>
@@ -5241,6 +5390,2821 @@
       </c>
       <c r="N78" t="s">
         <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B51CA-E720-47D6-B57E-42AA753C6BA3}">
+  <dimension ref="A1:N107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="L122" sqref="A108:L122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4">
+        <v>672</v>
+      </c>
+      <c r="K4">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>672</v>
+      </c>
+      <c r="K7">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>672</v>
+      </c>
+      <c r="K10">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13">
+        <v>672</v>
+      </c>
+      <c r="K13">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>672</v>
+      </c>
+      <c r="K16">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>672</v>
+      </c>
+      <c r="K19">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22">
+        <v>672</v>
+      </c>
+      <c r="K22">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25">
+        <v>672</v>
+      </c>
+      <c r="K25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28">
+        <v>672</v>
+      </c>
+      <c r="K28">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31">
+        <v>672</v>
+      </c>
+      <c r="K31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33">
+        <v>24</v>
+      </c>
+      <c r="K33">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34">
+        <v>672</v>
+      </c>
+      <c r="K34">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36">
+        <v>24</v>
+      </c>
+      <c r="K36">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37">
+        <v>672</v>
+      </c>
+      <c r="K37">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39">
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40">
+        <v>672</v>
+      </c>
+      <c r="K40">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42">
+        <v>24</v>
+      </c>
+      <c r="K42">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43">
+        <v>672</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46">
+        <v>672</v>
+      </c>
+      <c r="K46">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48">
+        <v>24</v>
+      </c>
+      <c r="K48">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49">
+        <v>672</v>
+      </c>
+      <c r="K49">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J51">
+        <v>24</v>
+      </c>
+      <c r="K51">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52">
+        <v>672</v>
+      </c>
+      <c r="K52">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54">
+        <v>24</v>
+      </c>
+      <c r="K54">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55">
+        <v>672</v>
+      </c>
+      <c r="K55">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="J57">
+        <v>24</v>
+      </c>
+      <c r="K57">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J58">
+        <v>672</v>
+      </c>
+      <c r="K58">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60">
+        <v>24</v>
+      </c>
+      <c r="K60">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="J61">
+        <v>672</v>
+      </c>
+      <c r="K61">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63">
+        <v>24</v>
+      </c>
+      <c r="K63">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65">
+        <v>24</v>
+      </c>
+      <c r="K65">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J66">
+        <v>672</v>
+      </c>
+      <c r="K66">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68">
+        <v>24</v>
+      </c>
+      <c r="K68">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="J69">
+        <v>672</v>
+      </c>
+      <c r="K69">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71">
+        <v>24</v>
+      </c>
+      <c r="K71">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72">
+        <v>672</v>
+      </c>
+      <c r="K72">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="J74">
+        <v>672</v>
+      </c>
+      <c r="K74">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76">
+        <v>24</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77">
+        <v>672</v>
+      </c>
+      <c r="K77">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="J78">
+        <v>24</v>
+      </c>
+      <c r="K78">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J79">
+        <v>672</v>
+      </c>
+      <c r="K79">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81">
+        <v>672</v>
+      </c>
+      <c r="K81">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" t="s">
+        <v>74</v>
+      </c>
+      <c r="J83">
+        <v>24</v>
+      </c>
+      <c r="K83">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84">
+        <v>672</v>
+      </c>
+      <c r="K84">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="J86">
+        <v>24</v>
+      </c>
+      <c r="K86">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87">
+        <v>672</v>
+      </c>
+      <c r="K87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89">
+        <v>24</v>
+      </c>
+      <c r="K89">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" t="s">
+        <v>79</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="J91">
+        <v>24</v>
+      </c>
+      <c r="K91">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" t="s">
+        <v>79</v>
+      </c>
+      <c r="J92">
+        <v>672</v>
+      </c>
+      <c r="K92">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94">
+        <v>24</v>
+      </c>
+      <c r="K94">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" t="s">
+        <v>55</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95">
+        <v>672</v>
+      </c>
+      <c r="K95">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>55</v>
+      </c>
+      <c r="G97" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97">
+        <v>24</v>
+      </c>
+      <c r="K97">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>55</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="J98">
+        <v>672</v>
+      </c>
+      <c r="K98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" t="s">
+        <v>79</v>
+      </c>
+      <c r="J100">
+        <v>24</v>
+      </c>
+      <c r="K100">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="J101">
+        <v>672</v>
+      </c>
+      <c r="K101">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103" t="s">
+        <v>74</v>
+      </c>
+      <c r="J103">
+        <v>24</v>
+      </c>
+      <c r="K103">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="J104">
+        <v>672</v>
+      </c>
+      <c r="K104">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" t="s">
+        <v>74</v>
+      </c>
+      <c r="J106">
+        <v>24</v>
+      </c>
+      <c r="K106">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" t="s">
+        <v>55</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="J107">
+        <v>672</v>
+      </c>
+      <c r="K107">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -5249,12 +8213,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5475,15 +8436,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5508,17 +8480,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/data/CompiledDataSet.xlsx
+++ b/tests/data/CompiledDataSet.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A56DD2-474B-4D9F-AE6C-E7ED6C89E65F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0530B-94EF-4509-96AE-0B2D6B36C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11476" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet_1" sheetId="1" r:id="rId1"/>
     <sheet name="MetaInfo" sheetId="48" r:id="rId2"/>
+    <sheet name="Stevens_2012_placebo" sheetId="49" r:id="rId3"/>
+    <sheet name="WrongSheet" sheetId="50" r:id="rId4"/>
+    <sheet name="CorrectSheet_additionalCols" sheetId="51" r:id="rId5"/>
+    <sheet name="CorrectSheet_negativeError" sheetId="52" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="74">
   <si>
     <t>Time [h]</t>
   </si>
@@ -397,6 +401,36 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Time [min]</t>
+  </si>
+  <si>
+    <t>Fraction [%]</t>
+  </si>
+  <si>
+    <t>Error [%]</t>
+  </si>
+  <si>
+    <t>Placebo_total</t>
+  </si>
+  <si>
+    <t>Sita_total</t>
+  </si>
+  <si>
+    <t>Placebo_proximal</t>
+  </si>
+  <si>
+    <t>Sita_proximal</t>
+  </si>
+  <si>
+    <t>Placebo_distal</t>
+  </si>
+  <si>
+    <t>Sita_dist</t>
   </si>
 </sst>
 </file>
@@ -1284,29 +1318,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1426,7 +1460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1464,7 +1498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1540,7 +1574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1578,7 +1612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1616,7 +1650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1654,7 +1688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1819,16 +1853,16 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.3984375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.59765625" style="3"/>
+    <col min="1" max="1" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1860,7 +1894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1868,10 +1902,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1879,10 +1913,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +1941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1915,7 +1949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1923,7 +1957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1931,7 +1965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1942,7 +1976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1953,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1967,7 +2001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
@@ -1987,13 +2021,3234 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E8DDA-F3F4-4710-A6B6-93A80B4A8C1A}">
+  <dimension ref="A1:N78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:N78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>13.172268907563</v>
+      </c>
+      <c r="K3">
+        <v>93.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>29.403361344537799</v>
+      </c>
+      <c r="K4">
+        <v>84.1666666666666</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>44.647058823529399</v>
+      </c>
+      <c r="K5">
+        <v>72.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>73.079831932773104</v>
+      </c>
+      <c r="K6">
+        <v>52.9166666666666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>88.273109243697405</v>
+      </c>
+      <c r="K7">
+        <v>46.25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>105.48319327730999</v>
+      </c>
+      <c r="K8">
+        <v>39.5833333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>118.66386554621801</v>
+      </c>
+      <c r="K9">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>149.029411764705</v>
+      </c>
+      <c r="K10">
+        <v>21.25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>180.35294117647001</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>210.65966386554601</v>
+      </c>
+      <c r="K12">
+        <v>9.5833333333333197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>240.94537815126</v>
+      </c>
+      <c r="K13">
+        <v>6.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>14.218487394957901</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>27.403361344537799</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>43.634453781512597</v>
+      </c>
+      <c r="K17">
+        <v>72.9166666666666</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>57.8403361344537</v>
+      </c>
+      <c r="K18">
+        <v>64.1666666666666</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>74.067226890756302</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>89.260504201680604</v>
+      </c>
+      <c r="K20">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>105.462184873949</v>
+      </c>
+      <c r="K21">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="N21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>119.642857142857</v>
+      </c>
+      <c r="K22">
+        <v>35.4166666666666</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>150.004201680672</v>
+      </c>
+      <c r="K23">
+        <v>24.5833333333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>179.31932773109199</v>
+      </c>
+      <c r="K24">
+        <v>17.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>209.62605042016801</v>
+      </c>
+      <c r="K25">
+        <v>12.0833333333333</v>
+      </c>
+      <c r="N25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>240.915966386554</v>
+      </c>
+      <c r="K26">
+        <v>9.1666666666666803</v>
+      </c>
+      <c r="N26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K27">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L27">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K28">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L28">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K29">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L29">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K30">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L30">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K31">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L31">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K32">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L32">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K33">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L33">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K34">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L34">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K35">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L35">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K37">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L37">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K38">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K39">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K40">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L40">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K41">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L41">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K42">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L42">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K43">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L43">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K44">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L44">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K45">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L45">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K46">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L46">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K47">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L47">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K48">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L48">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K50">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L50">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K51">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K52">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>25.579399141630901</v>
+      </c>
+      <c r="L53">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K54">
+        <v>32.446351931330398</v>
+      </c>
+      <c r="L54">
+        <v>2.9184549356223002</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>28.965517241379299</v>
+      </c>
+      <c r="K55">
+        <v>32.103004291845401</v>
+      </c>
+      <c r="L55">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>45.517241379310398</v>
+      </c>
+      <c r="K56">
+        <v>30.2145922746781</v>
+      </c>
+      <c r="L56">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>58.965517241379402</v>
+      </c>
+      <c r="K57">
+        <v>29.0128755364806</v>
+      </c>
+      <c r="L57">
+        <v>2.2317596566523008</v>
+      </c>
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K58">
+        <v>25.7510729613733</v>
+      </c>
+      <c r="L58">
+        <v>2.0600858369097992</v>
+      </c>
+      <c r="N58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>88.965517241379402</v>
+      </c>
+      <c r="K59">
+        <v>22.317596566523601</v>
+      </c>
+      <c r="L59">
+        <v>1.7167381974249025</v>
+      </c>
+      <c r="N59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K60">
+        <v>19.399141630901202</v>
+      </c>
+      <c r="L60">
+        <v>1.716738197424803</v>
+      </c>
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>16.480686695278902</v>
+      </c>
+      <c r="L61">
+        <v>1.5450643776824009</v>
+      </c>
+      <c r="N61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>11.158798283261801</v>
+      </c>
+      <c r="L62">
+        <v>1.2017167381974208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>180</v>
+      </c>
+      <c r="K63">
+        <v>8.2403433476394792</v>
+      </c>
+      <c r="L63">
+        <v>0.85836909871243883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>211.03448275861999</v>
+      </c>
+      <c r="K64">
+        <v>5.3218884120171701</v>
+      </c>
+      <c r="L64">
+        <v>1.0300429184549404</v>
+      </c>
+      <c r="N64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>238.96551724137899</v>
+      </c>
+      <c r="K65">
+        <v>4.1201716738197396</v>
+      </c>
+      <c r="L65">
+        <v>0.51502145922746978</v>
+      </c>
+      <c r="N65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>24.206008583690899</v>
+      </c>
+      <c r="L66">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K67">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L67">
+        <v>2.5751072961373005</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <v>26.8965517241379</v>
+      </c>
+      <c r="K68">
+        <v>32.274678111587903</v>
+      </c>
+      <c r="L68">
+        <v>2.9184549356223037</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <v>44.482758620689701</v>
+      </c>
+      <c r="K69">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L69">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J70">
+        <v>61.034482758620797</v>
+      </c>
+      <c r="K70">
+        <v>29.356223175965599</v>
+      </c>
+      <c r="L70">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K71">
+        <v>27.9828326180257</v>
+      </c>
+      <c r="L71">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J72">
+        <v>90.000000000000099</v>
+      </c>
+      <c r="K72">
+        <v>25.0643776824034</v>
+      </c>
+      <c r="L72">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J73">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K73">
+        <v>21.8025751072961</v>
+      </c>
+      <c r="L73">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J74">
+        <v>118.965517241379</v>
+      </c>
+      <c r="K74">
+        <v>19.2274678111588</v>
+      </c>
+      <c r="L74">
+        <v>2.4034334763947989</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J75">
+        <v>148.96551724137899</v>
+      </c>
+      <c r="K75">
+        <v>13.5622317596566</v>
+      </c>
+      <c r="L75">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <v>180</v>
+      </c>
+      <c r="K76">
+        <v>9.6137339055793998</v>
+      </c>
+      <c r="L76">
+        <v>2.4034334763948006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <v>208.96551724137899</v>
+      </c>
+      <c r="K77">
+        <v>6.5236051502145997</v>
+      </c>
+      <c r="L77">
+        <v>1.8884120171673704</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>5.1502145922746703</v>
+      </c>
+      <c r="L78">
+        <v>1.8884120171673899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB5B98-2408-40BA-99F9-228ECCEE7326}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C19160-8B30-4C70-A987-7318B15033AF}">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>13.172268907563</v>
+      </c>
+      <c r="K3">
+        <v>93.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>29.403361344537799</v>
+      </c>
+      <c r="K4">
+        <v>84.1666666666666</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>44.647058823529399</v>
+      </c>
+      <c r="K5">
+        <v>72.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>73.079831932773104</v>
+      </c>
+      <c r="K6">
+        <v>52.9166666666666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>88.273109243697405</v>
+      </c>
+      <c r="K7">
+        <v>46.25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>105.48319327730999</v>
+      </c>
+      <c r="K8">
+        <v>39.5833333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>118.66386554621801</v>
+      </c>
+      <c r="K9">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>149.029411764705</v>
+      </c>
+      <c r="K10">
+        <v>21.25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>180.35294117647001</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>210.65966386554601</v>
+      </c>
+      <c r="K12">
+        <v>9.5833333333333197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>240.94537815126</v>
+      </c>
+      <c r="K13">
+        <v>6.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>14.218487394957901</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>27.403361344537799</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>43.634453781512597</v>
+      </c>
+      <c r="K17">
+        <v>72.9166666666666</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>57.8403361344537</v>
+      </c>
+      <c r="K18">
+        <v>64.1666666666666</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>74.067226890756302</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>89.260504201680604</v>
+      </c>
+      <c r="K20">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>105.462184873949</v>
+      </c>
+      <c r="K21">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="N21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>119.642857142857</v>
+      </c>
+      <c r="K22">
+        <v>35.4166666666666</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>150.004201680672</v>
+      </c>
+      <c r="K23">
+        <v>24.5833333333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>179.31932773109199</v>
+      </c>
+      <c r="K24">
+        <v>17.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>209.62605042016801</v>
+      </c>
+      <c r="K25">
+        <v>12.0833333333333</v>
+      </c>
+      <c r="N25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>240.915966386554</v>
+      </c>
+      <c r="K26">
+        <v>9.1666666666666803</v>
+      </c>
+      <c r="N26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K27">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L27">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K28">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L28">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K29">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L29">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K30">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L30">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K31">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L31">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K32">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L32">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K33">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L33">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K34">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L34">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K35">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L35">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K37">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L37">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K38">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K39">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K40">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L40">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K41">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L41">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K42">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L42">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K43">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L43">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K44">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L44">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K45">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L45">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K46">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L46">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K47">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L47">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K48">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L48">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K50">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L50">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K51">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K52">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>25.579399141630901</v>
+      </c>
+      <c r="L53">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K54">
+        <v>32.446351931330398</v>
+      </c>
+      <c r="L54">
+        <v>2.9184549356223002</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>28.965517241379299</v>
+      </c>
+      <c r="K55">
+        <v>32.103004291845401</v>
+      </c>
+      <c r="L55">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>45.517241379310398</v>
+      </c>
+      <c r="K56">
+        <v>30.2145922746781</v>
+      </c>
+      <c r="L56">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>58.965517241379402</v>
+      </c>
+      <c r="K57">
+        <v>29.0128755364806</v>
+      </c>
+      <c r="L57">
+        <v>2.2317596566523008</v>
+      </c>
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K58">
+        <v>25.7510729613733</v>
+      </c>
+      <c r="L58">
+        <v>2.0600858369097992</v>
+      </c>
+      <c r="N58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>88.965517241379402</v>
+      </c>
+      <c r="K59">
+        <v>22.317596566523601</v>
+      </c>
+      <c r="L59">
+        <v>1.7167381974249025</v>
+      </c>
+      <c r="N59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K60">
+        <v>19.399141630901202</v>
+      </c>
+      <c r="L60">
+        <v>1.716738197424803</v>
+      </c>
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>16.480686695278902</v>
+      </c>
+      <c r="L61">
+        <v>1.5450643776824009</v>
+      </c>
+      <c r="N61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>11.158798283261801</v>
+      </c>
+      <c r="L62">
+        <v>1.2017167381974208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>180</v>
+      </c>
+      <c r="K63">
+        <v>8.2403433476394792</v>
+      </c>
+      <c r="L63">
+        <v>0.85836909871243883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>211.03448275861999</v>
+      </c>
+      <c r="K64">
+        <v>5.3218884120171701</v>
+      </c>
+      <c r="L64">
+        <v>1.0300429184549404</v>
+      </c>
+      <c r="N64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>238.96551724137899</v>
+      </c>
+      <c r="K65">
+        <v>4.1201716738197396</v>
+      </c>
+      <c r="L65">
+        <v>0.51502145922746978</v>
+      </c>
+      <c r="N65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>24.206008583690899</v>
+      </c>
+      <c r="L66">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K67">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L67">
+        <v>2.5751072961373005</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <v>26.8965517241379</v>
+      </c>
+      <c r="K68">
+        <v>32.274678111587903</v>
+      </c>
+      <c r="L68">
+        <v>2.9184549356223037</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <v>44.482758620689701</v>
+      </c>
+      <c r="K69">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L69">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J70">
+        <v>61.034482758620797</v>
+      </c>
+      <c r="K70">
+        <v>29.356223175965599</v>
+      </c>
+      <c r="L70">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K71">
+        <v>27.9828326180257</v>
+      </c>
+      <c r="L71">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J72">
+        <v>90.000000000000099</v>
+      </c>
+      <c r="K72">
+        <v>25.0643776824034</v>
+      </c>
+      <c r="L72">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J73">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K73">
+        <v>21.8025751072961</v>
+      </c>
+      <c r="L73">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J74">
+        <v>118.965517241379</v>
+      </c>
+      <c r="K74">
+        <v>19.2274678111588</v>
+      </c>
+      <c r="L74">
+        <v>2.4034334763947989</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J75">
+        <v>148.96551724137899</v>
+      </c>
+      <c r="K75">
+        <v>13.5622317596566</v>
+      </c>
+      <c r="L75">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <v>180</v>
+      </c>
+      <c r="K76">
+        <v>9.6137339055793998</v>
+      </c>
+      <c r="L76">
+        <v>2.4034334763948006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <v>208.96551724137899</v>
+      </c>
+      <c r="K77">
+        <v>6.5236051502145997</v>
+      </c>
+      <c r="L77">
+        <v>1.8884120171673704</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>5.1502145922746703</v>
+      </c>
+      <c r="L78">
+        <v>1.8884120171673899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BDD5F-6183-4F95-9E5B-E5759D0B37BB}">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>13.172268907563</v>
+      </c>
+      <c r="K3">
+        <v>93.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>29.403361344537799</v>
+      </c>
+      <c r="K4">
+        <v>84.1666666666666</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>44.647058823529399</v>
+      </c>
+      <c r="K5">
+        <v>72.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>73.079831932773104</v>
+      </c>
+      <c r="K6">
+        <v>52.9166666666666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>88.273109243697405</v>
+      </c>
+      <c r="K7">
+        <v>46.25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>105.48319327730999</v>
+      </c>
+      <c r="K8">
+        <v>39.5833333333333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>118.66386554621801</v>
+      </c>
+      <c r="K9">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>149.029411764705</v>
+      </c>
+      <c r="K10">
+        <v>21.25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>180.35294117647001</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>210.65966386554601</v>
+      </c>
+      <c r="K12">
+        <v>9.5833333333333197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>240.94537815126</v>
+      </c>
+      <c r="K13">
+        <v>6.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>14.218487394957901</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>27.403361344537799</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>43.634453781512597</v>
+      </c>
+      <c r="K17">
+        <v>72.9166666666666</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>57.8403361344537</v>
+      </c>
+      <c r="K18">
+        <v>64.1666666666666</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>74.067226890756302</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>89.260504201680604</v>
+      </c>
+      <c r="K20">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>105.462184873949</v>
+      </c>
+      <c r="K21">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="N21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>119.642857142857</v>
+      </c>
+      <c r="K22">
+        <v>35.4166666666666</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>150.004201680672</v>
+      </c>
+      <c r="K23">
+        <v>24.5833333333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>179.31932773109199</v>
+      </c>
+      <c r="K24">
+        <v>17.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>209.62605042016801</v>
+      </c>
+      <c r="K25">
+        <v>12.0833333333333</v>
+      </c>
+      <c r="N25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>240.915966386554</v>
+      </c>
+      <c r="K26">
+        <v>9.1666666666666803</v>
+      </c>
+      <c r="N26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K27">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L27">
+        <v>-4.8275862068966102</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K28">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L28">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K29">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L29">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K30">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L30">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K31">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L31">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K32">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L32">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K33">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L33">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K34">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L34">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K35">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L35">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K37">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L37">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K38">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K39">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>0.967598097502957</v>
+      </c>
+      <c r="K40">
+        <v>74.482758620689594</v>
+      </c>
+      <c r="L40">
+        <v>4.827586206896612</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>16.306480380499401</v>
+      </c>
+      <c r="K41">
+        <v>60.689655172413801</v>
+      </c>
+      <c r="L41">
+        <v>2.0689655172413026</v>
+      </c>
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>30.659928656361402</v>
+      </c>
+      <c r="K42">
+        <v>50.689655172413801</v>
+      </c>
+      <c r="L42">
+        <v>3.1034482758620001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>45.026753864447002</v>
+      </c>
+      <c r="K43">
+        <v>41.724137931034399</v>
+      </c>
+      <c r="L43">
+        <v>1.7241379310344982</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>61.475921521997499</v>
+      </c>
+      <c r="K44">
+        <v>33.793103448275801</v>
+      </c>
+      <c r="L44">
+        <v>2.7586206896551957</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>74.839476813317404</v>
+      </c>
+      <c r="K45">
+        <v>27.241379310344801</v>
+      </c>
+      <c r="L45">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>90.303210463733507</v>
+      </c>
+      <c r="K46">
+        <v>23.103448275862</v>
+      </c>
+      <c r="L46">
+        <v>2.4137931034482989</v>
+      </c>
+      <c r="N46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>105.76248513674101</v>
+      </c>
+      <c r="K47">
+        <v>18.620689655172399</v>
+      </c>
+      <c r="L47">
+        <v>2.413793103448203</v>
+      </c>
+      <c r="N47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>121.23513674197299</v>
+      </c>
+      <c r="K48">
+        <v>15.1724137931034</v>
+      </c>
+      <c r="L48">
+        <v>2.758620689655201</v>
+      </c>
+      <c r="N48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>150.133769322235</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>2.7586206896550998</v>
+      </c>
+      <c r="N49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>182.16260404280601</v>
+      </c>
+      <c r="K50">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="L50">
+        <v>2.068965517241371</v>
+      </c>
+      <c r="N50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>211.09690844233</v>
+      </c>
+      <c r="K51">
+        <v>4.4827586206896601</v>
+      </c>
+      <c r="N51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>242.11355529131899</v>
+      </c>
+      <c r="K52">
+        <v>3.1034482758620601</v>
+      </c>
+      <c r="N52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>25.579399141630901</v>
+      </c>
+      <c r="L53">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K54">
+        <v>32.446351931330398</v>
+      </c>
+      <c r="L54">
+        <v>2.9184549356223002</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>28.965517241379299</v>
+      </c>
+      <c r="K55">
+        <v>32.103004291845401</v>
+      </c>
+      <c r="L55">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>45.517241379310398</v>
+      </c>
+      <c r="K56">
+        <v>30.2145922746781</v>
+      </c>
+      <c r="L56">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>58.965517241379402</v>
+      </c>
+      <c r="K57">
+        <v>29.0128755364806</v>
+      </c>
+      <c r="L57">
+        <v>2.2317596566523008</v>
+      </c>
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K58">
+        <v>25.7510729613733</v>
+      </c>
+      <c r="L58">
+        <v>2.0600858369097992</v>
+      </c>
+      <c r="N58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>88.965517241379402</v>
+      </c>
+      <c r="K59">
+        <v>22.317596566523601</v>
+      </c>
+      <c r="L59">
+        <v>1.7167381974249025</v>
+      </c>
+      <c r="N59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K60">
+        <v>19.399141630901202</v>
+      </c>
+      <c r="L60">
+        <v>1.716738197424803</v>
+      </c>
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>16.480686695278902</v>
+      </c>
+      <c r="L61">
+        <v>1.5450643776824009</v>
+      </c>
+      <c r="N61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>11.158798283261801</v>
+      </c>
+      <c r="L62">
+        <v>1.2017167381974208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>180</v>
+      </c>
+      <c r="K63">
+        <v>8.2403433476394792</v>
+      </c>
+      <c r="L63">
+        <v>0.85836909871243883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>211.03448275861999</v>
+      </c>
+      <c r="K64">
+        <v>5.3218884120171701</v>
+      </c>
+      <c r="L64">
+        <v>1.0300429184549404</v>
+      </c>
+      <c r="N64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>238.96551724137899</v>
+      </c>
+      <c r="K65">
+        <v>4.1201716738197396</v>
+      </c>
+      <c r="L65">
+        <v>0.51502145922746978</v>
+      </c>
+      <c r="N65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>24.206008583690899</v>
+      </c>
+      <c r="L66">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>14.482758620689699</v>
+      </c>
+      <c r="K67">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L67">
+        <v>2.5751072961373005</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <v>26.8965517241379</v>
+      </c>
+      <c r="K68">
+        <v>32.274678111587903</v>
+      </c>
+      <c r="L68">
+        <v>2.9184549356223037</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <v>44.482758620689701</v>
+      </c>
+      <c r="K69">
+        <v>31.244635193133</v>
+      </c>
+      <c r="L69">
+        <v>2.4034334763949019</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J70">
+        <v>61.034482758620797</v>
+      </c>
+      <c r="K70">
+        <v>29.356223175965599</v>
+      </c>
+      <c r="L70">
+        <v>2.7467811158798021</v>
+      </c>
+      <c r="N70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <v>74.482758620689694</v>
+      </c>
+      <c r="K71">
+        <v>27.9828326180257</v>
+      </c>
+      <c r="L71">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J72">
+        <v>90.000000000000099</v>
+      </c>
+      <c r="K72">
+        <v>25.0643776824034</v>
+      </c>
+      <c r="L72">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J73">
+        <v>104.482758620689</v>
+      </c>
+      <c r="K73">
+        <v>21.8025751072961</v>
+      </c>
+      <c r="L73">
+        <v>2.7467811158797986</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J74">
+        <v>118.965517241379</v>
+      </c>
+      <c r="K74">
+        <v>19.2274678111588</v>
+      </c>
+      <c r="L74">
+        <v>2.4034334763947989</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J75">
+        <v>148.96551724137899</v>
+      </c>
+      <c r="K75">
+        <v>13.5622317596566</v>
+      </c>
+      <c r="L75">
+        <v>2.2317596566524003</v>
+      </c>
+      <c r="N75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <v>180</v>
+      </c>
+      <c r="K76">
+        <v>9.6137339055793998</v>
+      </c>
+      <c r="L76">
+        <v>2.4034334763948006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <v>208.96551724137899</v>
+      </c>
+      <c r="K77">
+        <v>6.5236051502145997</v>
+      </c>
+      <c r="L77">
+        <v>1.8884120171673704</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>5.1502145922746703</v>
+      </c>
+      <c r="L78">
+        <v>1.8884120171673899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2002,7 +5257,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6960b7ce0e258e5d224c1a71edff679">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7db7ba54f101f424e932c64edcbdaa0" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -2219,23 +5474,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DDEE09-40A7-45D2-BB9E-2F87B709C6D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2243,7 +5488,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8CCCB-E073-4D73-9695-C91416D097D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2260,4 +5505,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F0F837-F7F5-4F1A-B3BF-0AF8EF39D57E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>